--- a/FluidE-S/RELACION E-S.xlsx
+++ b/FluidE-S/RELACION E-S.xlsx
@@ -5,36 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sk8_d\Documents\GitHub\PLC\Fluid E-S\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\GitHub\PLC\FluidE-S\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DC2FAC2-0AE8-4314-B3BC-466FD0A075BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC80888-B4A1-4A9E-A564-56D93D8AF403}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{31BB8279-5BB6-4433-890C-37928397B367}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{31BB8279-5BB6-4433-890C-37928397B367}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Direcciones por ejercicio" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="342">
   <si>
     <t xml:space="preserve">ejercicios </t>
   </si>
@@ -91,9 +82,6 @@
   </si>
   <si>
     <t>EB15</t>
-  </si>
-  <si>
-    <t>EB16</t>
   </si>
   <si>
     <t>EB17</t>
@@ -1069,7 +1057,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1097,8 +1085,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1115,13 +1110,64 @@
         <fgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1130,15 +1176,34 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1149,6 +1214,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFA53503"/>
+      <color rgb="FF9A004D"/>
+      <color rgb="FFFF33CC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1459,1774 +1531,1776 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873BA327-33BA-4188-8DF7-755A048216E2}">
   <dimension ref="B1:D321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="4" width="10.90625" style="1"/>
+    <col min="2" max="2" width="16" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1"/>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B3" s="2">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="6">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="7">
+        <v>4</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="5">
+        <v>5</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="8">
+        <v>6</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B5" s="3">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="2">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="3">
-        <v>4</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="2">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="3">
-        <v>6</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="C15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B15" s="2" t="s">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="C17" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B17" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="3" t="s">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="3" t="s">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="10"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B20" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="2" t="s">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B22" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="3" t="s">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="6">
+        <v>3.7</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B24" s="2">
-        <v>3.7</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="2" t="s">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="7">
+        <v>6.1</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B27" s="3">
-        <v>6.1</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="3" t="s">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="7"/>
+      <c r="C28" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="5">
+        <v>6.2</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B28" s="3"/>
-      <c r="C28" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B29" s="2">
-        <v>6.2</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="2" t="s">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="8">
+        <v>6.3</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B31" s="3">
-        <v>6.3</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="3" t="s">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="8"/>
+      <c r="C32" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="8"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B32" s="3"/>
-      <c r="C32" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B33" s="2">
-        <v>6.5</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="2" t="s">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="9"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="10">
+        <v>6.7</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="10" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B35" s="3">
-        <v>6.7</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" s="3" t="s">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="10"/>
+      <c r="C36" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="10"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="3">
+        <v>6.8</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B36" s="3"/>
-      <c r="C36" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B37" s="2">
-        <v>6.8</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" s="2" t="s">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="4">
+        <v>6.9</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D38" s="2"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B39" s="3">
-        <v>6.9</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B40" s="3"/>
-      <c r="C40" s="3" t="s">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="3"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C41" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C42" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C42" s="1" t="s">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C43" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C43" s="1" t="s">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C44" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C44" s="1" t="s">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C45" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C45" s="1" t="s">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C46" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C46" s="1" t="s">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C47" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C47" s="1" t="s">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C48" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C48" s="1" t="s">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C49" s="1" t="s">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C50" s="1" t="s">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C51" s="1" t="s">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C52" s="1" t="s">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C53" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C53" s="1" t="s">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C54" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C54" s="1" t="s">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C55" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C55" s="1" t="s">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C56" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C56" s="1" t="s">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C57" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C57" s="1" t="s">
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C58" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C58" s="1" t="s">
+    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C59" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C59" s="1" t="s">
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C60" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C60" s="1" t="s">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C61" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C61" s="1" t="s">
+    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C62" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C62" s="1" t="s">
+    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C63" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C63" s="1" t="s">
+    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C64" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C64" s="1" t="s">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C65" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C65" s="1" t="s">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C66" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C66" s="1" t="s">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C67" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C67" s="1" t="s">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C68" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C68" s="1" t="s">
+    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C69" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C69" s="1" t="s">
+    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C70" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C70" s="1" t="s">
+    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C71" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C71" s="1" t="s">
+    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C72" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C72" s="1" t="s">
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C73" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C73" s="1" t="s">
+    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C74" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C74" s="1" t="s">
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C75" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C75" s="1" t="s">
+    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C76" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C76" s="1" t="s">
+    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C77" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C77" s="1" t="s">
+    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C78" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C78" s="1" t="s">
+    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C79" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C79" s="1" t="s">
+    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C80" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C80" s="1" t="s">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C81" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C81" s="1" t="s">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C82" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C82" s="1" t="s">
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C83" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C83" s="1" t="s">
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C84" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C84" s="1" t="s">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C85" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C85" s="1" t="s">
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C86" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C86" s="1" t="s">
+    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C87" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C87" s="1" t="s">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C88" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C88" s="1" t="s">
+    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C89" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C89" s="1" t="s">
+    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C90" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C90" s="1" t="s">
+    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C91" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C91" s="1" t="s">
+    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C92" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C92" s="1" t="s">
+    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C93" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C93" s="1" t="s">
+    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C94" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C94" s="1" t="s">
+    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C95" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C95" s="1" t="s">
+    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C96" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C96" s="1" t="s">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C97" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C97" s="1" t="s">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C98" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C98" s="1" t="s">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C99" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C99" s="1" t="s">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C100" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C100" s="1" t="s">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C101" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C101" s="1" t="s">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C102" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C102" s="1" t="s">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C103" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C103" s="1" t="s">
+    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C104" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C104" s="1" t="s">
+    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C105" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C105" s="1" t="s">
+    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C106" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C106" s="1" t="s">
+    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C107" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C107" s="1" t="s">
+    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C108" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C108" s="1" t="s">
+    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C109" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C109" s="1" t="s">
+    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C110" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C110" s="1" t="s">
+    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C111" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C111" s="1" t="s">
+    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C112" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C112" s="1" t="s">
+    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C113" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C113" s="1" t="s">
+    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C114" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C114" s="1" t="s">
+    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C115" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C115" s="1" t="s">
+    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C116" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C116" s="1" t="s">
+    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C117" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C117" s="1" t="s">
+    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C118" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C118" s="1" t="s">
+    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C119" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C119" s="1" t="s">
+    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C120" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C120" s="1" t="s">
+    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C121" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C121" s="1" t="s">
+    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C122" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C122" s="1" t="s">
+    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C123" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C123" s="1" t="s">
+    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C124" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C124" s="1" t="s">
+    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C125" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C125" s="1" t="s">
+    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C126" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C126" s="1" t="s">
+    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C127" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C127" s="1" t="s">
+    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C128" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C128" s="1" t="s">
+    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C129" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C129" s="1" t="s">
+    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C130" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C130" s="1" t="s">
+    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C131" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C131" s="1" t="s">
+    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C132" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C132" s="1" t="s">
+    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C133" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C133" s="1" t="s">
+    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C134" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C134" s="1" t="s">
+    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C135" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C135" s="1" t="s">
+    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C136" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C136" s="1" t="s">
+    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C137" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C137" s="1" t="s">
+    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C138" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C138" s="1" t="s">
+    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C139" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C139" s="1" t="s">
+    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C140" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C140" s="1" t="s">
+    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C141" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C141" s="1" t="s">
+    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C142" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C142" s="1" t="s">
+    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C143" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C143" s="1" t="s">
+    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C144" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C144" s="1" t="s">
+    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C145" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C145" s="1" t="s">
+    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C146" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C146" s="1" t="s">
+    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C147" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C147" s="1" t="s">
+    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C148" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C148" s="1" t="s">
+    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C149" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C149" s="1" t="s">
+    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C150" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C150" s="1" t="s">
+    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C151" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C151" s="1" t="s">
+    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C152" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C152" s="1" t="s">
+    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C153" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C153" s="1" t="s">
+    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C154" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C154" s="1" t="s">
+    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C155" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C155" s="1" t="s">
+    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C156" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C156" s="1" t="s">
+    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C157" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C157" s="1" t="s">
+    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C158" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C158" s="1" t="s">
+    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C159" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C159" s="1" t="s">
+    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C160" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C160" s="1" t="s">
+    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C161" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C161" s="1" t="s">
+    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C162" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C162" s="1" t="s">
+    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C163" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="163" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C163" s="1" t="s">
+    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C164" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="164" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C164" s="1" t="s">
+    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C165" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="165" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C165" s="1" t="s">
+    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C166" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="166" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C166" s="1" t="s">
+    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C167" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="167" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C167" s="1" t="s">
+    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C168" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="168" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C168" s="1" t="s">
+    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C169" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="169" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C169" s="1" t="s">
+    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C170" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="170" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C170" s="1" t="s">
+    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C171" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="171" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C171" s="1" t="s">
+    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C172" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="172" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C172" s="1" t="s">
+    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C173" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="173" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C173" s="1" t="s">
+    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C174" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="174" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C174" s="1" t="s">
+    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C175" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="175" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C175" s="1" t="s">
+    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C176" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="176" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C176" s="1" t="s">
+    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C177" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C177" s="1" t="s">
+    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C178" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C178" s="1" t="s">
+    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C179" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C179" s="1" t="s">
+    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C180" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="180" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C180" s="1" t="s">
+    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C181" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C181" s="1" t="s">
+    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C182" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="182" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C182" s="1" t="s">
+    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C183" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="183" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C183" s="1" t="s">
+    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C184" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="184" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C184" s="1" t="s">
+    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C185" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="185" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C185" s="1" t="s">
+    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C186" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="186" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C186" s="1" t="s">
+    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C187" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="187" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C187" s="1" t="s">
+    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C188" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="188" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C188" s="1" t="s">
+    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C189" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="189" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C189" s="1" t="s">
+    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C190" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="190" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C190" s="1" t="s">
+    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C191" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="191" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C191" s="1" t="s">
+    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C192" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="192" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C192" s="1" t="s">
+    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C193" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C193" s="1" t="s">
+    <row r="194" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C194" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="194" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C194" s="1" t="s">
+    <row r="195" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C195" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="195" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C195" s="1" t="s">
+    <row r="196" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C196" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="196" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C196" s="1" t="s">
+    <row r="197" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C197" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="197" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C197" s="1" t="s">
+    <row r="198" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C198" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="198" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C198" s="1" t="s">
+    <row r="199" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C199" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="199" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C199" s="1" t="s">
+    <row r="200" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C200" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="200" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C200" s="1" t="s">
+    <row r="201" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C201" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="201" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C201" s="1" t="s">
+    <row r="202" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C202" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="202" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C202" s="1" t="s">
+    <row r="203" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C203" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="203" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C203" s="1" t="s">
+    <row r="204" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C204" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="204" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C204" s="1" t="s">
+    <row r="205" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C205" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="205" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C205" s="1" t="s">
+    <row r="206" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C206" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="206" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C206" s="1" t="s">
+    <row r="207" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C207" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="207" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C207" s="1" t="s">
+    <row r="208" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C208" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="208" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C208" s="1" t="s">
+    <row r="209" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C209" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="209" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C209" s="1" t="s">
+    <row r="210" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C210" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="210" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C210" s="1" t="s">
+    <row r="211" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C211" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="211" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C211" s="1" t="s">
+    <row r="212" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C212" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="212" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C212" s="1" t="s">
+    <row r="213" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C213" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="213" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C213" s="1" t="s">
+    <row r="214" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C214" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="214" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C214" s="1" t="s">
+    <row r="215" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C215" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="215" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C215" s="1" t="s">
+    <row r="216" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C216" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="216" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C216" s="1" t="s">
+    <row r="217" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C217" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="217" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C217" s="1" t="s">
+    <row r="218" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C218" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="218" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C218" s="1" t="s">
+    <row r="219" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C219" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="219" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C219" s="1" t="s">
+    <row r="220" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C220" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="220" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C220" s="1" t="s">
+    <row r="221" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C221" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="221" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C221" s="1" t="s">
+    <row r="222" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C222" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="222" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C222" s="1" t="s">
+    <row r="223" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C223" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="223" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C223" s="1" t="s">
+    <row r="224" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C224" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="224" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C224" s="1" t="s">
+    <row r="225" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C225" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="225" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C225" s="1" t="s">
+    <row r="226" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C226" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="226" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C226" s="1" t="s">
+    <row r="227" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C227" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="227" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C227" s="1" t="s">
+    <row r="228" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C228" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="228" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C228" s="1" t="s">
+    <row r="229" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C229" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="229" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C229" s="1" t="s">
+    <row r="230" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C230" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="230" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C230" s="1" t="s">
+    <row r="231" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C231" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="231" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C231" s="1" t="s">
+    <row r="232" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C232" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="232" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C232" s="1" t="s">
+    <row r="233" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C233" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="233" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C233" s="1" t="s">
+    <row r="234" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C234" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="234" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C234" s="1" t="s">
+    <row r="235" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C235" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="235" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C235" s="1" t="s">
+    <row r="236" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C236" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="236" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C236" s="1" t="s">
+    <row r="237" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C237" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="237" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C237" s="1" t="s">
+    <row r="238" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C238" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="238" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C238" s="1" t="s">
+    <row r="239" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C239" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="239" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C239" s="1" t="s">
+    <row r="240" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C240" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="240" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C240" s="1" t="s">
+    <row r="241" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C241" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="241" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C241" s="1" t="s">
+    <row r="242" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C242" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="242" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C242" s="1" t="s">
+    <row r="243" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C243" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="243" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C243" s="1" t="s">
+    <row r="244" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C244" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="244" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C244" s="1" t="s">
+    <row r="245" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C245" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="245" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C245" s="1" t="s">
+    <row r="246" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C246" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="246" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C246" s="1" t="s">
+    <row r="247" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C247" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="247" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C247" s="1" t="s">
+    <row r="248" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C248" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="248" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C248" s="1" t="s">
+    <row r="249" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C249" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="249" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C249" s="1" t="s">
+    <row r="250" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C250" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="250" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C250" s="1" t="s">
+    <row r="251" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C251" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="251" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C251" s="1" t="s">
+    <row r="252" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C252" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="252" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C252" s="1" t="s">
+    <row r="253" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C253" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="253" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C253" s="1" t="s">
+    <row r="254" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C254" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="254" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C254" s="1" t="s">
+    <row r="255" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C255" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="255" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C255" s="1" t="s">
+    <row r="256" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C256" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="256" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C256" s="1" t="s">
+    <row r="257" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C257" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="257" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C257" s="1" t="s">
+    <row r="258" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C258" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="258" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C258" s="1" t="s">
+    <row r="259" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C259" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="259" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C259" s="1" t="s">
+    <row r="260" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C260" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="260" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C260" s="1" t="s">
+    <row r="261" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C261" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="261" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C261" s="1" t="s">
+    <row r="262" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C262" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="262" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C262" s="1" t="s">
+    <row r="263" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C263" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="263" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C263" s="1" t="s">
+    <row r="264" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C264" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="264" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C264" s="1" t="s">
+    <row r="265" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C265" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="265" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C265" s="1" t="s">
+    <row r="266" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C266" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="266" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C266" s="1" t="s">
+    <row r="267" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C267" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="267" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C267" s="1" t="s">
+    <row r="268" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C268" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="268" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C268" s="1" t="s">
+    <row r="269" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C269" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="269" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C269" s="1" t="s">
+    <row r="270" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C270" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="270" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C270" s="1" t="s">
+    <row r="271" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C271" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="271" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C271" s="1" t="s">
+    <row r="272" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C272" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="272" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C272" s="1" t="s">
+    <row r="273" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C273" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="273" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C273" s="1" t="s">
+    <row r="274" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C274" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="274" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C274" s="1" t="s">
+    <row r="275" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C275" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="275" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C275" s="1" t="s">
+    <row r="276" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C276" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="276" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C276" s="1" t="s">
+    <row r="277" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C277" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="277" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C277" s="1" t="s">
+    <row r="278" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C278" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="278" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C278" s="1" t="s">
+    <row r="279" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C279" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="279" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C279" s="1" t="s">
+    <row r="280" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C280" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="280" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C280" s="1" t="s">
+    <row r="281" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C281" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="281" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C281" s="1" t="s">
+    <row r="282" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C282" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="282" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C282" s="1" t="s">
+    <row r="283" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C283" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="283" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C283" s="1" t="s">
+    <row r="284" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C284" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="284" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C284" s="1" t="s">
+    <row r="285" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C285" s="1" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="285" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C285" s="1" t="s">
+    <row r="286" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C286" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="286" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C286" s="1" t="s">
+    <row r="287" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C287" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="287" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C287" s="1" t="s">
+    <row r="288" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C288" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="288" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C288" s="1" t="s">
+    <row r="289" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C289" s="1" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="289" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C289" s="1" t="s">
+    <row r="290" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C290" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="290" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C290" s="1" t="s">
+    <row r="291" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C291" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="291" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C291" s="1" t="s">
+    <row r="292" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C292" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="292" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C292" s="1" t="s">
+    <row r="293" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C293" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="293" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C293" s="1" t="s">
+    <row r="294" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C294" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="294" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C294" s="1" t="s">
+    <row r="295" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C295" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="295" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C295" s="1" t="s">
+    <row r="296" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C296" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="296" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C296" s="1" t="s">
+    <row r="297" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C297" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="297" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C297" s="1" t="s">
+    <row r="298" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C298" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="298" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C298" s="1" t="s">
+    <row r="299" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C299" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="299" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C299" s="1" t="s">
+    <row r="300" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C300" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="300" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C300" s="1" t="s">
+    <row r="301" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C301" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="301" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C301" s="1" t="s">
+    <row r="302" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C302" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="302" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C302" s="1" t="s">
+    <row r="303" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C303" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="303" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C303" s="1" t="s">
+    <row r="304" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C304" s="1" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="304" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C304" s="1" t="s">
+    <row r="305" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C305" s="1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="305" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C305" s="1" t="s">
+    <row r="306" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C306" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="306" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C306" s="1" t="s">
+    <row r="307" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C307" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="307" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C307" s="1" t="s">
+    <row r="308" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C308" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="308" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C308" s="1" t="s">
+    <row r="309" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C309" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="309" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C309" s="1" t="s">
+    <row r="310" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C310" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="310" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C310" s="1" t="s">
+    <row r="311" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C311" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="311" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C311" s="1" t="s">
+    <row r="312" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C312" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="312" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C312" s="1" t="s">
+    <row r="313" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C313" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="313" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C313" s="1" t="s">
+    <row r="314" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C314" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="314" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C314" s="1" t="s">
+    <row r="315" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C315" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="315" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C315" s="1" t="s">
+    <row r="316" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C316" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="316" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C316" s="1" t="s">
+    <row r="317" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C317" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="317" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C317" s="1" t="s">
+    <row r="318" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C318" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="318" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C318" s="1" t="s">
+    <row r="319" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C319" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="319" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C319" s="1" t="s">
+    <row r="320" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C320" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="320" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C320" s="1" t="s">
+    <row r="321" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C321" s="1" t="s">
         <v>320</v>
-      </c>
-    </row>
-    <row r="321" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C321" s="1" t="s">
-        <v>321</v>
       </c>
     </row>
   </sheetData>

--- a/FluidE-S/RELACION E-S.xlsx
+++ b/FluidE-S/RELACION E-S.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\GitHub\PLC\FluidE-S\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC80888-B4A1-4A9E-A564-56D93D8AF403}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E30417-B658-47D8-9AF7-3EDE78FB1D3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{31BB8279-5BB6-4433-890C-37928397B367}"/>
   </bookViews>
@@ -1531,7 +1531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873BA327-33BA-4188-8DF7-755A048216E2}">
   <dimension ref="B1:D321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>

--- a/FluidE-S/RELACION E-S.xlsx
+++ b/FluidE-S/RELACION E-S.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\GitHub\PLC\FluidE-S\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E30417-B658-47D8-9AF7-3EDE78FB1D3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F02F01A-3AF2-419C-B5C7-A640E8F01AE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{31BB8279-5BB6-4433-890C-37928397B367}"/>
   </bookViews>
@@ -1532,7 +1532,7 @@
   <dimension ref="B1:D321"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/FluidE-S/RELACION E-S.xlsx
+++ b/FluidE-S/RELACION E-S.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\GitHub\PLC\FluidE-S\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F02F01A-3AF2-419C-B5C7-A640E8F01AE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8FEBD3-1BE4-4AF2-BEA6-2F4B201DDD6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{31BB8279-5BB6-4433-890C-37928397B367}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{31BB8279-5BB6-4433-890C-37928397B367}"/>
   </bookViews>
   <sheets>
     <sheet name="Direcciones por ejercicio" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="360">
   <si>
     <t xml:space="preserve">ejercicios </t>
   </si>
@@ -1051,6 +1052,60 @@
   </si>
   <si>
     <t>AB18</t>
+  </si>
+  <si>
+    <t>C_CONTINUO</t>
+  </si>
+  <si>
+    <t>C_UNICO</t>
+  </si>
+  <si>
+    <t>PARO</t>
+  </si>
+  <si>
+    <t>DET_PIEZA</t>
+  </si>
+  <si>
+    <t>N/C</t>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>B0</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>C0</t>
+  </si>
+  <si>
+    <t>1Y1</t>
+  </si>
+  <si>
+    <t>1Y2</t>
+  </si>
+  <si>
+    <t>1Y3</t>
+  </si>
+  <si>
+    <t>1Y4</t>
+  </si>
+  <si>
+    <t>1Y5</t>
+  </si>
+  <si>
+    <t>1Y6</t>
+  </si>
+  <si>
+    <t>Entradas</t>
+  </si>
+  <si>
+    <t>Salidas</t>
   </si>
 </sst>
 </file>
@@ -1176,7 +1231,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1205,6 +1260,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1531,8 +1592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873BA327-33BA-4188-8DF7-755A048216E2}">
   <dimension ref="B1:D321"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3307,4 +3368,205 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4479E5A1-3D83-48F1-9389-443073603DD9}">
+  <dimension ref="B3:T6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="10" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B3" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="L3" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2">
+        <v>7</v>
+      </c>
+      <c r="N4" s="2">
+        <v>6</v>
+      </c>
+      <c r="O4" s="2">
+        <v>5</v>
+      </c>
+      <c r="P4" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>3</v>
+      </c>
+      <c r="R4" s="2">
+        <v>2</v>
+      </c>
+      <c r="S4" s="2">
+        <v>1</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="S5" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="T5" s="11" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="L3:T3"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/FluidE-S/RELACION E-S.xlsx
+++ b/FluidE-S/RELACION E-S.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\GitHub\PLC\FluidE-S\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8FEBD3-1BE4-4AF2-BEA6-2F4B201DDD6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A530BA-A5BC-4CB6-9748-DE980035CDA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{31BB8279-5BB6-4433-890C-37928397B367}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="415">
   <si>
     <t xml:space="preserve">ejercicios </t>
   </si>
@@ -1054,36 +1054,6 @@
     <t>AB18</t>
   </si>
   <si>
-    <t>C_CONTINUO</t>
-  </si>
-  <si>
-    <t>C_UNICO</t>
-  </si>
-  <si>
-    <t>PARO</t>
-  </si>
-  <si>
-    <t>DET_PIEZA</t>
-  </si>
-  <si>
-    <t>N/C</t>
-  </si>
-  <si>
-    <t>A0</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>B0</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>C0</t>
-  </si>
-  <si>
     <t>1Y1</t>
   </si>
   <si>
@@ -1106,6 +1076,201 @@
   </si>
   <si>
     <t>Salidas</t>
+  </si>
+  <si>
+    <t>Dirección</t>
+  </si>
+  <si>
+    <t>1B1</t>
+  </si>
+  <si>
+    <t>1A0</t>
+  </si>
+  <si>
+    <t>1A1</t>
+  </si>
+  <si>
+    <t>1B0</t>
+  </si>
+  <si>
+    <t>1C0</t>
+  </si>
+  <si>
+    <t>1C1</t>
+  </si>
+  <si>
+    <t>1HONGO</t>
+  </si>
+  <si>
+    <t>1RESET</t>
+  </si>
+  <si>
+    <t>1C_UNICO</t>
+  </si>
+  <si>
+    <t>1C_CONTINUO</t>
+  </si>
+  <si>
+    <t>1PARO</t>
+  </si>
+  <si>
+    <t>1DET_PIEZA</t>
+  </si>
+  <si>
+    <t>2HONGO</t>
+  </si>
+  <si>
+    <t>2RESET</t>
+  </si>
+  <si>
+    <t>2C_UNICO</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2A0</t>
+  </si>
+  <si>
+    <t>2A1</t>
+  </si>
+  <si>
+    <t>2B0</t>
+  </si>
+  <si>
+    <t>2B1</t>
+  </si>
+  <si>
+    <t>2C0</t>
+  </si>
+  <si>
+    <t>2C1</t>
+  </si>
+  <si>
+    <t>2Y6</t>
+  </si>
+  <si>
+    <t>2Y5</t>
+  </si>
+  <si>
+    <t>2Y4</t>
+  </si>
+  <si>
+    <t>2Y3</t>
+  </si>
+  <si>
+    <t>2Y2</t>
+  </si>
+  <si>
+    <t>2Y1</t>
+  </si>
+  <si>
+    <t>3HONGO</t>
+  </si>
+  <si>
+    <t>3RESET</t>
+  </si>
+  <si>
+    <t>3C_UNICO</t>
+  </si>
+  <si>
+    <t>3A0</t>
+  </si>
+  <si>
+    <t>3A1</t>
+  </si>
+  <si>
+    <t>3B0</t>
+  </si>
+  <si>
+    <t>3B1</t>
+  </si>
+  <si>
+    <t>3C0</t>
+  </si>
+  <si>
+    <t>3C1</t>
+  </si>
+  <si>
+    <t>3Y1</t>
+  </si>
+  <si>
+    <t>3Y2</t>
+  </si>
+  <si>
+    <t>3Y3</t>
+  </si>
+  <si>
+    <t>3Y4</t>
+  </si>
+  <si>
+    <t>3Y5</t>
+  </si>
+  <si>
+    <t>3Y6</t>
+  </si>
+  <si>
+    <t>4HONGO</t>
+  </si>
+  <si>
+    <t>4RESET</t>
+  </si>
+  <si>
+    <t>4C_UNICO</t>
+  </si>
+  <si>
+    <t>4C_CONTINUO</t>
+  </si>
+  <si>
+    <t>4PARO</t>
+  </si>
+  <si>
+    <t>4A0</t>
+  </si>
+  <si>
+    <t>4A1</t>
+  </si>
+  <si>
+    <t>4B0</t>
+  </si>
+  <si>
+    <t>4B1</t>
+  </si>
+  <si>
+    <t>4C0</t>
+  </si>
+  <si>
+    <t>4C1</t>
+  </si>
+  <si>
+    <t>4D0</t>
+  </si>
+  <si>
+    <t>4D1</t>
+  </si>
+  <si>
+    <t>4Y1</t>
+  </si>
+  <si>
+    <t>4Y2</t>
+  </si>
+  <si>
+    <t>4Y3</t>
+  </si>
+  <si>
+    <t>4Y4</t>
+  </si>
+  <si>
+    <t>4Y5</t>
+  </si>
+  <si>
+    <t>4Y6</t>
+  </si>
+  <si>
+    <t>4Y7</t>
+  </si>
+  <si>
+    <t>4Y8</t>
   </si>
 </sst>
 </file>
@@ -1202,7 +1367,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1225,13 +1390,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1264,8 +1455,29 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1593,7 +1805,7 @@
   <dimension ref="B1:D321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3372,43 +3584,71 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4479E5A1-3D83-48F1-9389-443073603DD9}">
-  <dimension ref="B3:T6"/>
+  <dimension ref="B3:AN20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AF3" sqref="AF3:AN6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="10" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="10" width="13.7109375" customWidth="1"/>
+    <col min="11" max="11" width="6.5703125" customWidth="1"/>
+    <col min="12" max="20" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="L3" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-    </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
+    <row r="3" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="L3" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="V3" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="13"/>
+      <c r="AD3" s="13"/>
+      <c r="AF3" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="AG3" s="13"/>
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="13"/>
+      <c r="AJ3" s="13"/>
+      <c r="AK3" s="13"/>
+      <c r="AL3" s="13"/>
+      <c r="AM3" s="13"/>
+      <c r="AN3" s="13"/>
+    </row>
+    <row r="4" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>350</v>
+      </c>
       <c r="C4" s="2">
         <v>7</v>
       </c>
@@ -3433,7 +3673,9 @@
       <c r="J4" s="2">
         <v>0</v>
       </c>
-      <c r="L4" s="2"/>
+      <c r="L4" s="2" t="s">
+        <v>350</v>
+      </c>
       <c r="M4" s="2">
         <v>7</v>
       </c>
@@ -3458,103 +3700,655 @@
       <c r="T4" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V4" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="W4" s="2">
+        <v>7</v>
+      </c>
+      <c r="X4" s="2">
+        <v>6</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>4</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>7</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>6</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>5</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>4</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>3</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>2</v>
+      </c>
+      <c r="AM4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="P5" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="Q5" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="R5" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="S5" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="T5" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="L5" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>357</v>
-      </c>
-      <c r="P5" s="11" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q5" s="11" t="s">
-        <v>355</v>
-      </c>
-      <c r="R5" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="S5" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="T5" s="11" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="W5" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="X5" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y5" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="Z5" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="AA5" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="AB5" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="AC5" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="AD5" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="AF5" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="AG5" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="AH5" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="AI5" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="AJ5" s="18" t="s">
+        <v>411</v>
+      </c>
+      <c r="AK5" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="AL5" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="AM5" s="18" t="s">
+        <v>408</v>
+      </c>
+      <c r="AN5" s="18" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="6" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>350</v>
-      </c>
       <c r="H6" s="3" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
+        <v>352</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="V6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="W6" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="X6" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y6" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="Z6" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="AA6" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="AB6" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="AC6" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="AD6" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="AF6" s="19"/>
+      <c r="AG6" s="19"/>
+      <c r="AH6" s="19"/>
+      <c r="AI6" s="19"/>
+      <c r="AJ6" s="19"/>
+      <c r="AK6" s="19"/>
+      <c r="AL6" s="19"/>
+      <c r="AM6" s="19"/>
+      <c r="AN6" s="19"/>
+    </row>
+    <row r="7" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="K7" s="1">
+        <v>2</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="S7" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="T7" s="14" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="8" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="K8" s="1">
+        <v>3</v>
+      </c>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+    </row>
+    <row r="9" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="K9" s="1">
+        <v>4</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="O9" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q9" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="R9" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="S9" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="T9" s="16" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="10" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="K10" s="1">
+        <v>5</v>
+      </c>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+    </row>
+    <row r="11" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="K11" s="1">
+        <v>6</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="M11" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="N11" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="O11" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="P11" s="18" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q11" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="R11" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="S11" s="18" t="s">
+        <v>408</v>
+      </c>
+      <c r="T11" s="18" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="12" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="K12" s="1">
+        <v>7</v>
+      </c>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+    </row>
+    <row r="13" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="1">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="49">
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="AF3:AN3"/>
+    <mergeCell ref="AF5:AF6"/>
+    <mergeCell ref="AG5:AG6"/>
+    <mergeCell ref="AH5:AH6"/>
+    <mergeCell ref="AI5:AI6"/>
+    <mergeCell ref="AJ5:AJ6"/>
+    <mergeCell ref="AK5:AK6"/>
+    <mergeCell ref="AL5:AL6"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AN5:AN6"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="V3:AD3"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="S7:S8"/>
     <mergeCell ref="R5:R6"/>
     <mergeCell ref="S5:S6"/>
     <mergeCell ref="T5:T6"/>
@@ -3567,6 +4361,7 @@
     <mergeCell ref="P5:P6"/>
     <mergeCell ref="Q5:Q6"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/FluidE-S/RELACION E-S.xlsx
+++ b/FluidE-S/RELACION E-S.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\GitHub\PLC\FluidE-S\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A530BA-A5BC-4CB6-9748-DE980035CDA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA903D7-9CEE-40B3-A42C-58B27D659557}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{31BB8279-5BB6-4433-890C-37928397B367}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="451">
   <si>
     <t xml:space="preserve">ejercicios </t>
   </si>
@@ -1271,6 +1271,114 @@
   </si>
   <si>
     <t>4Y8</t>
+  </si>
+  <si>
+    <t>5HONGO</t>
+  </si>
+  <si>
+    <t>5RESET</t>
+  </si>
+  <si>
+    <t>5C_UNICO</t>
+  </si>
+  <si>
+    <t>5A0</t>
+  </si>
+  <si>
+    <t>5A1</t>
+  </si>
+  <si>
+    <t>5B0</t>
+  </si>
+  <si>
+    <t>5B1</t>
+  </si>
+  <si>
+    <t>5C0</t>
+  </si>
+  <si>
+    <t>5C1</t>
+  </si>
+  <si>
+    <t>5Y1</t>
+  </si>
+  <si>
+    <t>5Y2</t>
+  </si>
+  <si>
+    <t>5Y3</t>
+  </si>
+  <si>
+    <t>5Y4</t>
+  </si>
+  <si>
+    <t>5Y5</t>
+  </si>
+  <si>
+    <t>5Y6</t>
+  </si>
+  <si>
+    <t>6HONGO</t>
+  </si>
+  <si>
+    <t>6RESET</t>
+  </si>
+  <si>
+    <t>6C_UNICO</t>
+  </si>
+  <si>
+    <t>6C_CONTINUO</t>
+  </si>
+  <si>
+    <t>6PARO</t>
+  </si>
+  <si>
+    <t>6A0</t>
+  </si>
+  <si>
+    <t>6A1</t>
+  </si>
+  <si>
+    <t>6B0</t>
+  </si>
+  <si>
+    <t>6B1</t>
+  </si>
+  <si>
+    <t>6C0</t>
+  </si>
+  <si>
+    <t>6C1</t>
+  </si>
+  <si>
+    <t>6D0</t>
+  </si>
+  <si>
+    <t>6D1</t>
+  </si>
+  <si>
+    <t>6Y1</t>
+  </si>
+  <si>
+    <t>6Y2</t>
+  </si>
+  <si>
+    <t>6Y3</t>
+  </si>
+  <si>
+    <t>6Y4</t>
+  </si>
+  <si>
+    <t>6Y5</t>
+  </si>
+  <si>
+    <t>6Y6</t>
+  </si>
+  <si>
+    <t>6Y7</t>
+  </si>
+  <si>
+    <t>6Y8</t>
   </si>
 </sst>
 </file>
@@ -1313,7 +1421,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1363,6 +1471,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1422,7 +1536,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1455,7 +1569,16 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1467,16 +1590,19 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1805,7 +1931,7 @@
   <dimension ref="B1:D321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3586,8 +3712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4479E5A1-3D83-48F1-9389-443073603DD9}">
   <dimension ref="B3:AN20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AF3" sqref="AF3:AN6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3600,50 +3726,50 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="16" t="s">
         <v>348</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="L3" s="13" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="L3" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="V3" s="13" t="s">
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="V3" s="16" t="s">
         <v>348</v>
       </c>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="13"/>
-      <c r="AB3" s="13"/>
-      <c r="AC3" s="13"/>
-      <c r="AD3" s="13"/>
-      <c r="AF3" s="13" t="s">
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="16"/>
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="16"/>
+      <c r="AD3" s="16"/>
+      <c r="AF3" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="AG3" s="13"/>
-      <c r="AH3" s="13"/>
-      <c r="AI3" s="13"/>
-      <c r="AJ3" s="13"/>
-      <c r="AK3" s="13"/>
-      <c r="AL3" s="13"/>
-      <c r="AM3" s="13"/>
-      <c r="AN3" s="13"/>
+      <c r="AG3" s="16"/>
+      <c r="AH3" s="16"/>
+      <c r="AI3" s="16"/>
+      <c r="AJ3" s="16"/>
+      <c r="AK3" s="16"/>
+      <c r="AL3" s="16"/>
+      <c r="AM3" s="16"/>
+      <c r="AN3" s="16"/>
     </row>
     <row r="4" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
@@ -3786,86 +3912,84 @@
       <c r="K5" s="1">
         <v>0</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="19" t="s">
         <v>321</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="19" t="s">
         <v>366</v>
       </c>
-      <c r="N5" s="12" t="s">
+      <c r="N5" s="19" t="s">
         <v>366</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="O5" s="19" t="s">
         <v>347</v>
       </c>
-      <c r="P5" s="12" t="s">
+      <c r="P5" s="19" t="s">
         <v>346</v>
       </c>
-      <c r="Q5" s="12" t="s">
+      <c r="Q5" s="19" t="s">
         <v>345</v>
       </c>
-      <c r="R5" s="12" t="s">
+      <c r="R5" s="19" t="s">
         <v>344</v>
       </c>
-      <c r="S5" s="12" t="s">
+      <c r="S5" s="19" t="s">
         <v>343</v>
       </c>
-      <c r="T5" s="12" t="s">
+      <c r="T5" s="19" t="s">
         <v>342</v>
       </c>
-      <c r="V5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="W5" s="7" t="s">
+      <c r="V5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="X5" s="7" t="s">
+      <c r="Y5" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="Y5" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="Z5" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="AA5" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="AB5" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="AC5" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="AD5" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="AF5" s="18" t="s">
-        <v>326</v>
-      </c>
-      <c r="AG5" s="18" t="s">
-        <v>414</v>
-      </c>
-      <c r="AH5" s="18" t="s">
-        <v>413</v>
-      </c>
-      <c r="AI5" s="18" t="s">
-        <v>412</v>
-      </c>
-      <c r="AJ5" s="18" t="s">
-        <v>411</v>
-      </c>
-      <c r="AK5" s="18" t="s">
-        <v>410</v>
-      </c>
-      <c r="AL5" s="18" t="s">
-        <v>409</v>
-      </c>
-      <c r="AM5" s="18" t="s">
-        <v>408</v>
-      </c>
-      <c r="AN5" s="18" t="s">
-        <v>407</v>
+      <c r="Z5" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="AA5" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="AB5" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="AC5" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="AD5" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="AF5" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="AG5" s="22" t="s">
+        <v>450</v>
+      </c>
+      <c r="AH5" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="AI5" s="22" t="s">
+        <v>448</v>
+      </c>
+      <c r="AJ5" s="22" t="s">
+        <v>447</v>
+      </c>
+      <c r="AK5" s="22" t="s">
+        <v>446</v>
+      </c>
+      <c r="AL5" s="22" t="s">
+        <v>445</v>
+      </c>
+      <c r="AM5" s="22" t="s">
+        <v>444</v>
+      </c>
+      <c r="AN5" s="22" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="6" spans="2:40" x14ac:dyDescent="0.25">
@@ -3899,51 +4023,51 @@
       <c r="K6" s="1">
         <v>1</v>
       </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="V6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="W6" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="X6" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="Y6" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="Z6" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="AA6" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="AB6" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="AC6" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="AD6" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="AF6" s="19"/>
-      <c r="AG6" s="19"/>
-      <c r="AH6" s="19"/>
-      <c r="AI6" s="19"/>
-      <c r="AJ6" s="19"/>
-      <c r="AK6" s="19"/>
-      <c r="AL6" s="19"/>
-      <c r="AM6" s="19"/>
-      <c r="AN6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="V6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="W6" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="X6" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="Y6" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="Z6" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="AA6" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="AB6" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC6" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="AD6" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="AF6" s="23"/>
+      <c r="AG6" s="23"/>
+      <c r="AH6" s="23"/>
+      <c r="AI6" s="23"/>
+      <c r="AJ6" s="23"/>
+      <c r="AK6" s="23"/>
+      <c r="AL6" s="23"/>
+      <c r="AM6" s="23"/>
+      <c r="AN6" s="23"/>
     </row>
     <row r="7" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
@@ -3976,31 +4100,31 @@
       <c r="K7" s="1">
         <v>2</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="L7" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="M7" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="N7" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="O7" s="14" t="s">
+      <c r="O7" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="P7" s="14" t="s">
+      <c r="P7" s="17" t="s">
         <v>374</v>
       </c>
-      <c r="Q7" s="14" t="s">
+      <c r="Q7" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="R7" s="14" t="s">
+      <c r="R7" s="17" t="s">
         <v>376</v>
       </c>
-      <c r="S7" s="14" t="s">
+      <c r="S7" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="T7" s="14" t="s">
+      <c r="T7" s="17" t="s">
         <v>378</v>
       </c>
     </row>
@@ -4035,15 +4159,15 @@
       <c r="K8" s="1">
         <v>3</v>
       </c>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
     </row>
     <row r="9" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
@@ -4076,31 +4200,31 @@
       <c r="K9" s="1">
         <v>4</v>
       </c>
-      <c r="L9" s="16" t="s">
+      <c r="L9" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="M9" s="16" t="s">
+      <c r="M9" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="N9" s="16" t="s">
+      <c r="N9" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="O9" s="16" t="s">
+      <c r="O9" s="12" t="s">
         <v>393</v>
       </c>
-      <c r="P9" s="16" t="s">
+      <c r="P9" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="Q9" s="16" t="s">
+      <c r="Q9" s="12" t="s">
         <v>391</v>
       </c>
-      <c r="R9" s="16" t="s">
+      <c r="R9" s="12" t="s">
         <v>390</v>
       </c>
-      <c r="S9" s="16" t="s">
+      <c r="S9" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="T9" s="16" t="s">
+      <c r="T9" s="12" t="s">
         <v>388</v>
       </c>
     </row>
@@ -4135,15 +4259,15 @@
       <c r="K10" s="1">
         <v>5</v>
       </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
     </row>
     <row r="11" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
@@ -4176,31 +4300,31 @@
       <c r="K11" s="1">
         <v>6</v>
       </c>
-      <c r="L11" s="18" t="s">
+      <c r="L11" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="M11" s="18" t="s">
+      <c r="M11" s="14" t="s">
         <v>414</v>
       </c>
-      <c r="N11" s="18" t="s">
+      <c r="N11" s="14" t="s">
         <v>413</v>
       </c>
-      <c r="O11" s="18" t="s">
+      <c r="O11" s="14" t="s">
         <v>412</v>
       </c>
-      <c r="P11" s="18" t="s">
+      <c r="P11" s="14" t="s">
         <v>411</v>
       </c>
-      <c r="Q11" s="18" t="s">
+      <c r="Q11" s="14" t="s">
         <v>410</v>
       </c>
-      <c r="R11" s="18" t="s">
+      <c r="R11" s="14" t="s">
         <v>409</v>
       </c>
-      <c r="S11" s="18" t="s">
+      <c r="S11" s="14" t="s">
         <v>408</v>
       </c>
-      <c r="T11" s="18" t="s">
+      <c r="T11" s="14" t="s">
         <v>407</v>
       </c>
     </row>
@@ -4235,47 +4359,213 @@
       <c r="K12" s="1">
         <v>7</v>
       </c>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
     </row>
     <row r="13" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="5" t="s">
         <v>11</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>415</v>
       </c>
       <c r="K13" s="1">
         <v>8</v>
       </c>
+      <c r="L13" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="M13" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="N13" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="O13" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="P13" s="20" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q13" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="R13" s="20" t="s">
+        <v>426</v>
+      </c>
+      <c r="S13" s="20" t="s">
+        <v>425</v>
+      </c>
+      <c r="T13" s="20" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="14" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="5" t="s">
         <v>12</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>418</v>
       </c>
       <c r="K14" s="1">
         <v>9</v>
       </c>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
     </row>
     <row r="15" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="B15" s="8" t="s">
         <v>13</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>430</v>
       </c>
       <c r="K15" s="1">
         <v>10</v>
       </c>
+      <c r="L15" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="M15" s="22" t="s">
+        <v>450</v>
+      </c>
+      <c r="N15" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="O15" s="22" t="s">
+        <v>448</v>
+      </c>
+      <c r="P15" s="22" t="s">
+        <v>447</v>
+      </c>
+      <c r="Q15" s="22" t="s">
+        <v>446</v>
+      </c>
+      <c r="R15" s="22" t="s">
+        <v>445</v>
+      </c>
+      <c r="S15" s="22" t="s">
+        <v>444</v>
+      </c>
+      <c r="T15" s="22" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="16" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="B16" s="8" t="s">
         <v>14</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>435</v>
       </c>
       <c r="K16" s="1">
         <v>11</v>
       </c>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="11" t="s">
@@ -4310,7 +4600,58 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="49">
+  <mergeCells count="67">
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="L3:T3"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="V3:AD3"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="AF3:AN3"/>
+    <mergeCell ref="AF5:AF6"/>
+    <mergeCell ref="AG5:AG6"/>
+    <mergeCell ref="AH5:AH6"/>
+    <mergeCell ref="AI5:AI6"/>
+    <mergeCell ref="AJ5:AJ6"/>
+    <mergeCell ref="AK5:AK6"/>
+    <mergeCell ref="AL5:AL6"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AN5:AN6"/>
+    <mergeCell ref="T7:T8"/>
     <mergeCell ref="Q9:Q10"/>
     <mergeCell ref="R9:R10"/>
     <mergeCell ref="S9:S10"/>
@@ -4327,39 +4668,6 @@
     <mergeCell ref="L9:L10"/>
     <mergeCell ref="M9:M10"/>
     <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="AF3:AN3"/>
-    <mergeCell ref="AF5:AF6"/>
-    <mergeCell ref="AG5:AG6"/>
-    <mergeCell ref="AH5:AH6"/>
-    <mergeCell ref="AI5:AI6"/>
-    <mergeCell ref="AJ5:AJ6"/>
-    <mergeCell ref="AK5:AK6"/>
-    <mergeCell ref="AL5:AL6"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="V3:AD3"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="L3:T3"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FluidE-S/RELACION E-S.xlsx
+++ b/FluidE-S/RELACION E-S.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\GitHub\PLC\FluidE-S\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA903D7-9CEE-40B3-A42C-58B27D659557}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9F5EAB-8DF5-4777-8238-3409BBC5E393}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{31BB8279-5BB6-4433-890C-37928397B367}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="543">
   <si>
     <t xml:space="preserve">ejercicios </t>
   </si>
@@ -1379,13 +1379,289 @@
   </si>
   <si>
     <t>6Y8</t>
+  </si>
+  <si>
+    <t>C1Y1</t>
+  </si>
+  <si>
+    <t>C2Y2</t>
+  </si>
+  <si>
+    <t>C1Y2</t>
+  </si>
+  <si>
+    <t>C1Y3</t>
+  </si>
+  <si>
+    <t>C1Y4</t>
+  </si>
+  <si>
+    <t>C1Y5</t>
+  </si>
+  <si>
+    <t>C1HONGO</t>
+  </si>
+  <si>
+    <t>C1RESET</t>
+  </si>
+  <si>
+    <t>C1C_UNICO</t>
+  </si>
+  <si>
+    <t>C1C_CONTINUO</t>
+  </si>
+  <si>
+    <t>C1PARO</t>
+  </si>
+  <si>
+    <t>C1C_BROCA</t>
+  </si>
+  <si>
+    <t>C1A0</t>
+  </si>
+  <si>
+    <t>C1A1</t>
+  </si>
+  <si>
+    <t>C1B0</t>
+  </si>
+  <si>
+    <t>C1B1</t>
+  </si>
+  <si>
+    <t>C1C0</t>
+  </si>
+  <si>
+    <t>C1C1</t>
+  </si>
+  <si>
+    <t>C1Y6</t>
+  </si>
+  <si>
+    <t>C2HONGO</t>
+  </si>
+  <si>
+    <t>C2RESET</t>
+  </si>
+  <si>
+    <t>C2DET_PIEZA</t>
+  </si>
+  <si>
+    <t>C2C_UNICO</t>
+  </si>
+  <si>
+    <t>C2C_CONTINUO</t>
+  </si>
+  <si>
+    <t>C2_PARO</t>
+  </si>
+  <si>
+    <t>C2A0</t>
+  </si>
+  <si>
+    <t>C2A1</t>
+  </si>
+  <si>
+    <t>C2B0</t>
+  </si>
+  <si>
+    <t>C2B1</t>
+  </si>
+  <si>
+    <t>C2C0</t>
+  </si>
+  <si>
+    <t>C2C1</t>
+  </si>
+  <si>
+    <t>C2D0</t>
+  </si>
+  <si>
+    <t>C2D1</t>
+  </si>
+  <si>
+    <t>C2E0</t>
+  </si>
+  <si>
+    <t>C2E1</t>
+  </si>
+  <si>
+    <t>C2Y1</t>
+  </si>
+  <si>
+    <t>C2Y3</t>
+  </si>
+  <si>
+    <t>C2Y4</t>
+  </si>
+  <si>
+    <t>C2Y5</t>
+  </si>
+  <si>
+    <t>C2Y6</t>
+  </si>
+  <si>
+    <t>C2Y7</t>
+  </si>
+  <si>
+    <t>C2Y8</t>
+  </si>
+  <si>
+    <t>C2Y9</t>
+  </si>
+  <si>
+    <t>C2Y11</t>
+  </si>
+  <si>
+    <t>C2Y10</t>
+  </si>
+  <si>
+    <t>C2Y12</t>
+  </si>
+  <si>
+    <t>EB16</t>
+  </si>
+  <si>
+    <t>NO SE PUEDE USAR</t>
+  </si>
+  <si>
+    <t>C2DET_CINTA</t>
+  </si>
+  <si>
+    <t>C2F0</t>
+  </si>
+  <si>
+    <t>C2F1</t>
+  </si>
+  <si>
+    <t>35HONGO</t>
+  </si>
+  <si>
+    <t>35RESET</t>
+  </si>
+  <si>
+    <t>35C_UNICO</t>
+  </si>
+  <si>
+    <t>35A0</t>
+  </si>
+  <si>
+    <t>335A1</t>
+  </si>
+  <si>
+    <t>35B1</t>
+  </si>
+  <si>
+    <t>35B0</t>
+  </si>
+  <si>
+    <t>35C0</t>
+  </si>
+  <si>
+    <t>35C1</t>
+  </si>
+  <si>
+    <t>35D0</t>
+  </si>
+  <si>
+    <t>35D1</t>
+  </si>
+  <si>
+    <t>35Y1</t>
+  </si>
+  <si>
+    <t>35Y2</t>
+  </si>
+  <si>
+    <t>35Y3</t>
+  </si>
+  <si>
+    <t>35Y4</t>
+  </si>
+  <si>
+    <t>35Y5</t>
+  </si>
+  <si>
+    <t>35Y6</t>
+  </si>
+  <si>
+    <t>35Y7</t>
+  </si>
+  <si>
+    <t>35Y8</t>
+  </si>
+  <si>
+    <t>36HONGO</t>
+  </si>
+  <si>
+    <t>36RESET</t>
+  </si>
+  <si>
+    <t>36C_UNICO</t>
+  </si>
+  <si>
+    <t>36C_CONTINUO</t>
+  </si>
+  <si>
+    <t>36PARO</t>
+  </si>
+  <si>
+    <t>36DET_PIEZA</t>
+  </si>
+  <si>
+    <t>36A0</t>
+  </si>
+  <si>
+    <t>36A1</t>
+  </si>
+  <si>
+    <t>36B0</t>
+  </si>
+  <si>
+    <t>36B1</t>
+  </si>
+  <si>
+    <t>36C0</t>
+  </si>
+  <si>
+    <t>36C1</t>
+  </si>
+  <si>
+    <t>36D0</t>
+  </si>
+  <si>
+    <t>36D1</t>
+  </si>
+  <si>
+    <t>36Y1</t>
+  </si>
+  <si>
+    <t>36Y2</t>
+  </si>
+  <si>
+    <t>36Y3</t>
+  </si>
+  <si>
+    <t>36Y4</t>
+  </si>
+  <si>
+    <t>36Y5</t>
+  </si>
+  <si>
+    <t>36Y6</t>
+  </si>
+  <si>
+    <t>36Y7</t>
+  </si>
+  <si>
+    <t>36Y8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1420,8 +1696,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1480,8 +1764,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1530,13 +1832,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1567,6 +1906,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1603,6 +1972,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1930,8 +2305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873BA327-33BA-4188-8DF7-755A048216E2}">
   <dimension ref="B1:D321"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3710,10 +4085,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4479E5A1-3D83-48F1-9389-443073603DD9}">
-  <dimension ref="B3:AN20"/>
+  <dimension ref="B3:AN31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" topLeftCell="K13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3726,50 +4101,50 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="26" t="s">
         <v>348</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="L3" s="16" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="L3" s="26" t="s">
         <v>349</v>
       </c>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="V3" s="16" t="s">
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="V3" s="26" t="s">
         <v>348</v>
       </c>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="16"/>
-      <c r="AA3" s="16"/>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="16"/>
-      <c r="AD3" s="16"/>
-      <c r="AF3" s="16" t="s">
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AF3" s="26" t="s">
         <v>349</v>
       </c>
-      <c r="AG3" s="16"/>
-      <c r="AH3" s="16"/>
-      <c r="AI3" s="16"/>
-      <c r="AJ3" s="16"/>
-      <c r="AK3" s="16"/>
-      <c r="AL3" s="16"/>
-      <c r="AM3" s="16"/>
-      <c r="AN3" s="16"/>
+      <c r="AG3" s="26"/>
+      <c r="AH3" s="26"/>
+      <c r="AI3" s="26"/>
+      <c r="AJ3" s="26"/>
+      <c r="AK3" s="26"/>
+      <c r="AL3" s="26"/>
+      <c r="AM3" s="26"/>
+      <c r="AN3" s="26"/>
     </row>
     <row r="4" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
@@ -3912,84 +4287,86 @@
       <c r="K5" s="1">
         <v>0</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="L5" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="M5" s="19" t="s">
-        <v>366</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>366</v>
-      </c>
-      <c r="O5" s="19" t="s">
+      <c r="M5" s="29" t="s">
+        <v>366</v>
+      </c>
+      <c r="N5" s="29" t="s">
+        <v>366</v>
+      </c>
+      <c r="O5" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="P5" s="19" t="s">
+      <c r="P5" s="29" t="s">
         <v>346</v>
       </c>
-      <c r="Q5" s="19" t="s">
+      <c r="Q5" s="29" t="s">
         <v>345</v>
       </c>
-      <c r="R5" s="19" t="s">
+      <c r="R5" s="29" t="s">
         <v>344</v>
       </c>
-      <c r="S5" s="19" t="s">
+      <c r="S5" s="29" t="s">
         <v>343</v>
       </c>
-      <c r="T5" s="19" t="s">
+      <c r="T5" s="29" t="s">
         <v>342</v>
       </c>
-      <c r="V5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="Y5" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="Z5" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="AA5" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="AB5" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="AC5" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="AD5" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="AF5" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="AG5" s="22" t="s">
-        <v>450</v>
-      </c>
-      <c r="AH5" s="22" t="s">
-        <v>449</v>
-      </c>
-      <c r="AI5" s="22" t="s">
-        <v>448</v>
-      </c>
-      <c r="AJ5" s="22" t="s">
-        <v>447</v>
-      </c>
-      <c r="AK5" s="22" t="s">
-        <v>446</v>
-      </c>
-      <c r="AL5" s="22" t="s">
-        <v>445</v>
-      </c>
-      <c r="AM5" s="22" t="s">
-        <v>444</v>
-      </c>
-      <c r="AN5" s="22" t="s">
-        <v>443</v>
+      <c r="V5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="AB5" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="AC5" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="AD5" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="AF5" s="34" t="s">
+        <v>333</v>
+      </c>
+      <c r="AG5" s="34" t="s">
+        <v>542</v>
+      </c>
+      <c r="AH5" s="34" t="s">
+        <v>541</v>
+      </c>
+      <c r="AI5" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="AJ5" s="34" t="s">
+        <v>539</v>
+      </c>
+      <c r="AK5" s="34" t="s">
+        <v>538</v>
+      </c>
+      <c r="AL5" s="34" t="s">
+        <v>537</v>
+      </c>
+      <c r="AM5" s="34" t="s">
+        <v>536</v>
+      </c>
+      <c r="AN5" s="34" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="6" spans="2:40" x14ac:dyDescent="0.25">
@@ -4023,51 +4400,51 @@
       <c r="K6" s="1">
         <v>1</v>
       </c>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="V6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="W6" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="X6" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="Y6" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="Z6" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="AA6" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="AB6" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="AC6" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="AD6" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="AF6" s="23"/>
-      <c r="AG6" s="23"/>
-      <c r="AH6" s="23"/>
-      <c r="AI6" s="23"/>
-      <c r="AJ6" s="23"/>
-      <c r="AK6" s="23"/>
-      <c r="AL6" s="23"/>
-      <c r="AM6" s="23"/>
-      <c r="AN6" s="23"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="V6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="AF6" s="35"/>
+      <c r="AG6" s="35"/>
+      <c r="AH6" s="35"/>
+      <c r="AI6" s="35"/>
+      <c r="AJ6" s="35"/>
+      <c r="AK6" s="35"/>
+      <c r="AL6" s="35"/>
+      <c r="AM6" s="35"/>
+      <c r="AN6" s="35"/>
     </row>
     <row r="7" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
@@ -4100,31 +4477,31 @@
       <c r="K7" s="1">
         <v>2</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="L7" s="27" t="s">
         <v>324</v>
       </c>
-      <c r="M7" s="17" t="s">
-        <v>366</v>
-      </c>
-      <c r="N7" s="17" t="s">
-        <v>366</v>
-      </c>
-      <c r="O7" s="17" t="s">
+      <c r="M7" s="27" t="s">
+        <v>366</v>
+      </c>
+      <c r="N7" s="27" t="s">
+        <v>366</v>
+      </c>
+      <c r="O7" s="27" t="s">
         <v>373</v>
       </c>
-      <c r="P7" s="17" t="s">
+      <c r="P7" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="Q7" s="17" t="s">
+      <c r="Q7" s="27" t="s">
         <v>375</v>
       </c>
-      <c r="R7" s="17" t="s">
+      <c r="R7" s="27" t="s">
         <v>376</v>
       </c>
-      <c r="S7" s="17" t="s">
+      <c r="S7" s="27" t="s">
         <v>377</v>
       </c>
-      <c r="T7" s="17" t="s">
+      <c r="T7" s="27" t="s">
         <v>378</v>
       </c>
     </row>
@@ -4159,15 +4536,15 @@
       <c r="K8" s="1">
         <v>3</v>
       </c>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
     </row>
     <row r="9" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
@@ -4200,31 +4577,31 @@
       <c r="K9" s="1">
         <v>4</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="L9" s="22" t="s">
         <v>325</v>
       </c>
-      <c r="M9" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="N9" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="O9" s="12" t="s">
+      <c r="M9" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="N9" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="O9" s="22" t="s">
         <v>393</v>
       </c>
-      <c r="P9" s="12" t="s">
+      <c r="P9" s="22" t="s">
         <v>392</v>
       </c>
-      <c r="Q9" s="12" t="s">
+      <c r="Q9" s="22" t="s">
         <v>391</v>
       </c>
-      <c r="R9" s="12" t="s">
+      <c r="R9" s="22" t="s">
         <v>390</v>
       </c>
-      <c r="S9" s="12" t="s">
+      <c r="S9" s="22" t="s">
         <v>389</v>
       </c>
-      <c r="T9" s="12" t="s">
+      <c r="T9" s="22" t="s">
         <v>388</v>
       </c>
     </row>
@@ -4259,15 +4636,15 @@
       <c r="K10" s="1">
         <v>5</v>
       </c>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
     </row>
     <row r="11" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
@@ -4300,31 +4677,31 @@
       <c r="K11" s="1">
         <v>6</v>
       </c>
-      <c r="L11" s="14" t="s">
+      <c r="L11" s="24" t="s">
         <v>326</v>
       </c>
-      <c r="M11" s="14" t="s">
+      <c r="M11" s="24" t="s">
         <v>414</v>
       </c>
-      <c r="N11" s="14" t="s">
+      <c r="N11" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="O11" s="14" t="s">
+      <c r="O11" s="24" t="s">
         <v>412</v>
       </c>
-      <c r="P11" s="14" t="s">
+      <c r="P11" s="24" t="s">
         <v>411</v>
       </c>
-      <c r="Q11" s="14" t="s">
+      <c r="Q11" s="24" t="s">
         <v>410</v>
       </c>
-      <c r="R11" s="14" t="s">
+      <c r="R11" s="24" t="s">
         <v>409</v>
       </c>
-      <c r="S11" s="14" t="s">
+      <c r="S11" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="T11" s="14" t="s">
+      <c r="T11" s="24" t="s">
         <v>407</v>
       </c>
     </row>
@@ -4359,15 +4736,15 @@
       <c r="K12" s="1">
         <v>7</v>
       </c>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
     </row>
     <row r="13" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
@@ -4400,31 +4777,31 @@
       <c r="K13" s="1">
         <v>8</v>
       </c>
-      <c r="L13" s="20" t="s">
+      <c r="L13" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="M13" s="20" t="s">
-        <v>366</v>
-      </c>
-      <c r="N13" s="20" t="s">
-        <v>366</v>
-      </c>
-      <c r="O13" s="20" t="s">
+      <c r="M13" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="N13" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="O13" s="30" t="s">
         <v>429</v>
       </c>
-      <c r="P13" s="20" t="s">
+      <c r="P13" s="30" t="s">
         <v>428</v>
       </c>
-      <c r="Q13" s="20" t="s">
+      <c r="Q13" s="30" t="s">
         <v>427</v>
       </c>
-      <c r="R13" s="20" t="s">
+      <c r="R13" s="30" t="s">
         <v>426</v>
       </c>
-      <c r="S13" s="20" t="s">
+      <c r="S13" s="30" t="s">
         <v>425</v>
       </c>
-      <c r="T13" s="20" t="s">
+      <c r="T13" s="30" t="s">
         <v>424</v>
       </c>
     </row>
@@ -4459,15 +4836,15 @@
       <c r="K14" s="1">
         <v>9</v>
       </c>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="31"/>
     </row>
     <row r="15" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
@@ -4498,31 +4875,31 @@
       <c r="K15" s="1">
         <v>10</v>
       </c>
-      <c r="L15" s="22" t="s">
+      <c r="L15" s="32" t="s">
         <v>328</v>
       </c>
-      <c r="M15" s="22" t="s">
+      <c r="M15" s="32" t="s">
         <v>450</v>
       </c>
-      <c r="N15" s="22" t="s">
+      <c r="N15" s="32" t="s">
         <v>449</v>
       </c>
-      <c r="O15" s="22" t="s">
+      <c r="O15" s="32" t="s">
         <v>448</v>
       </c>
-      <c r="P15" s="22" t="s">
+      <c r="P15" s="32" t="s">
         <v>447</v>
       </c>
-      <c r="Q15" s="22" t="s">
+      <c r="Q15" s="32" t="s">
         <v>446</v>
       </c>
-      <c r="R15" s="22" t="s">
+      <c r="R15" s="32" t="s">
         <v>445</v>
       </c>
-      <c r="S15" s="22" t="s">
+      <c r="S15" s="32" t="s">
         <v>444</v>
       </c>
-      <c r="T15" s="22" t="s">
+      <c r="T15" s="32" t="s">
         <v>443</v>
       </c>
     </row>
@@ -4557,54 +4934,547 @@
       <c r="K16" s="1">
         <v>11</v>
       </c>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="11" t="s">
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="33"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
         <v>15</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>457</v>
       </c>
       <c r="K17" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="11" t="s">
+      <c r="L17" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="M17" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="N17" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="O17" s="20" t="s">
+        <v>469</v>
+      </c>
+      <c r="P17" s="20" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q17" s="20" t="s">
+        <v>455</v>
+      </c>
+      <c r="R17" s="20" t="s">
+        <v>454</v>
+      </c>
+      <c r="S17" s="20" t="s">
+        <v>453</v>
+      </c>
+      <c r="T17" s="20" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
         <v>16</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>463</v>
       </c>
       <c r="K18" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B19" s="10" t="s">
         <v>17</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>470</v>
       </c>
       <c r="K19" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="L19" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="M19" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="N19" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="O19" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="P19" s="15" t="s">
+        <v>489</v>
+      </c>
+      <c r="Q19" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="R19" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="S19" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="T19" s="15" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B20" s="10" t="s">
         <v>18</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>476</v>
       </c>
       <c r="K20" s="1">
         <v>15</v>
       </c>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B21" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>498</v>
+      </c>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="1">
+        <v>16</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="M21" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="N21" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="O21" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="P21" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q21" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="R21" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="S21" s="15" t="s">
+        <v>495</v>
+      </c>
+      <c r="T21" s="15" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B22" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="K22" s="1">
+        <v>17</v>
+      </c>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B23" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="K23" s="1">
+        <v>18</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="M23" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="N23" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="O23" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="P23" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="Q23" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="R23" s="13" t="s">
+        <v>515</v>
+      </c>
+      <c r="S23" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="T23" s="13" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B24" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="K24" s="1">
+        <v>19</v>
+      </c>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="K25" s="1">
+        <v>20</v>
+      </c>
+      <c r="L25" s="34" t="s">
+        <v>333</v>
+      </c>
+      <c r="M25" s="34" t="s">
+        <v>542</v>
+      </c>
+      <c r="N25" s="34" t="s">
+        <v>541</v>
+      </c>
+      <c r="O25" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="P25" s="34" t="s">
+        <v>539</v>
+      </c>
+      <c r="Q25" s="34" t="s">
+        <v>538</v>
+      </c>
+      <c r="R25" s="34" t="s">
+        <v>537</v>
+      </c>
+      <c r="S25" s="34" t="s">
+        <v>536</v>
+      </c>
+      <c r="T25" s="34" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="K26" s="1">
+        <v>21</v>
+      </c>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B27" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K27" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B28" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K28" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B29" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K29" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="K30" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="K31" s="1">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="67">
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="T13:T14"/>
+  <mergeCells count="113">
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="T25:T26"/>
     <mergeCell ref="L15:L16"/>
     <mergeCell ref="M15:M16"/>
     <mergeCell ref="N15:N16"/>
@@ -4614,9 +5484,6 @@
     <mergeCell ref="R15:R16"/>
     <mergeCell ref="S15:S16"/>
     <mergeCell ref="T15:T16"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
     <mergeCell ref="O13:O14"/>
     <mergeCell ref="P13:P14"/>
     <mergeCell ref="B3:J3"/>
@@ -4630,6 +5497,16 @@
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="L7:L8"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
     <mergeCell ref="V3:AD3"/>
     <mergeCell ref="O7:O8"/>
     <mergeCell ref="P7:P8"/>
@@ -4639,8 +5516,7 @@
     <mergeCell ref="R5:R6"/>
     <mergeCell ref="S5:S6"/>
     <mergeCell ref="T5:T6"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="T7:T8"/>
     <mergeCell ref="AF3:AN3"/>
     <mergeCell ref="AF5:AF6"/>
     <mergeCell ref="AG5:AG6"/>
@@ -4651,8 +5527,6 @@
     <mergeCell ref="AL5:AL6"/>
     <mergeCell ref="AM5:AM6"/>
     <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="Q9:Q10"/>
     <mergeCell ref="R9:R10"/>
     <mergeCell ref="S9:S10"/>
     <mergeCell ref="T9:T10"/>
@@ -4668,8 +5542,46 @@
     <mergeCell ref="L9:L10"/>
     <mergeCell ref="M9:M10"/>
     <mergeCell ref="N9:N10"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="S21:S22"/>
+    <mergeCell ref="T21:T22"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="R23:R24"/>
+    <mergeCell ref="S23:S24"/>
+    <mergeCell ref="T23:T24"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/FluidE-S/RELACION E-S.xlsx
+++ b/FluidE-S/RELACION E-S.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\GitHub\PLC\FluidE-S\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9F5EAB-8DF5-4777-8238-3409BBC5E393}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CA4266-E7E9-4BF2-814B-7AA404BB1ECA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{31BB8279-5BB6-4433-890C-37928397B367}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="630">
   <si>
     <t xml:space="preserve">ejercicios </t>
   </si>
@@ -1655,6 +1655,267 @@
   </si>
   <si>
     <t>36Y8</t>
+  </si>
+  <si>
+    <t>37Y8</t>
+  </si>
+  <si>
+    <t>37Y7</t>
+  </si>
+  <si>
+    <t>37Y6</t>
+  </si>
+  <si>
+    <t>37Y5</t>
+  </si>
+  <si>
+    <t>37Y4</t>
+  </si>
+  <si>
+    <t>37Y1</t>
+  </si>
+  <si>
+    <t>37Y2</t>
+  </si>
+  <si>
+    <t>37Y3</t>
+  </si>
+  <si>
+    <t>37HONGO</t>
+  </si>
+  <si>
+    <t>37RESET</t>
+  </si>
+  <si>
+    <t>37C_UNICO</t>
+  </si>
+  <si>
+    <t>37C_CONTINUO</t>
+  </si>
+  <si>
+    <t>37PARO</t>
+  </si>
+  <si>
+    <t>37DET_PIEZA</t>
+  </si>
+  <si>
+    <t>37A0</t>
+  </si>
+  <si>
+    <t>37A1</t>
+  </si>
+  <si>
+    <t>37B0</t>
+  </si>
+  <si>
+    <t>37B1</t>
+  </si>
+  <si>
+    <t>37C0</t>
+  </si>
+  <si>
+    <t>37C1</t>
+  </si>
+  <si>
+    <t>37D0</t>
+  </si>
+  <si>
+    <t>37D1</t>
+  </si>
+  <si>
+    <t>37C2</t>
+  </si>
+  <si>
+    <t>61HONGO</t>
+  </si>
+  <si>
+    <t>61RESET</t>
+  </si>
+  <si>
+    <t>61C_UNICO</t>
+  </si>
+  <si>
+    <t>61A0</t>
+  </si>
+  <si>
+    <t>61A1</t>
+  </si>
+  <si>
+    <t>61B0</t>
+  </si>
+  <si>
+    <t>61B1</t>
+  </si>
+  <si>
+    <t>61Y1</t>
+  </si>
+  <si>
+    <t>61Y2</t>
+  </si>
+  <si>
+    <t>61Y4</t>
+  </si>
+  <si>
+    <t>E29</t>
+  </si>
+  <si>
+    <t>E30</t>
+  </si>
+  <si>
+    <t>E31</t>
+  </si>
+  <si>
+    <t>E32</t>
+  </si>
+  <si>
+    <t>62HONGO</t>
+  </si>
+  <si>
+    <t>62RESET</t>
+  </si>
+  <si>
+    <t>62C_UNICO</t>
+  </si>
+  <si>
+    <t>62A0</t>
+  </si>
+  <si>
+    <t>62A1</t>
+  </si>
+  <si>
+    <t>62B0</t>
+  </si>
+  <si>
+    <t>62B1</t>
+  </si>
+  <si>
+    <t>62Y1</t>
+  </si>
+  <si>
+    <t>62Y2</t>
+  </si>
+  <si>
+    <t>61Y3</t>
+  </si>
+  <si>
+    <t>62Y4</t>
+  </si>
+  <si>
+    <t>62Y5</t>
+  </si>
+  <si>
+    <t>63HONGO</t>
+  </si>
+  <si>
+    <t>63RESET</t>
+  </si>
+  <si>
+    <t>63C_UNICO</t>
+  </si>
+  <si>
+    <t>63C_CONTINUO</t>
+  </si>
+  <si>
+    <t>63PARO</t>
+  </si>
+  <si>
+    <t>63DET_PIEZA</t>
+  </si>
+  <si>
+    <t>63A0</t>
+  </si>
+  <si>
+    <t>63A1</t>
+  </si>
+  <si>
+    <t>63B0</t>
+  </si>
+  <si>
+    <t>63B1</t>
+  </si>
+  <si>
+    <t>63C0</t>
+  </si>
+  <si>
+    <t>63C1</t>
+  </si>
+  <si>
+    <t>63Y1</t>
+  </si>
+  <si>
+    <t>63Y2</t>
+  </si>
+  <si>
+    <t>63Y3</t>
+  </si>
+  <si>
+    <t>63Y4</t>
+  </si>
+  <si>
+    <t>63Y5</t>
+  </si>
+  <si>
+    <t>63Y6</t>
+  </si>
+  <si>
+    <t>E33</t>
+  </si>
+  <si>
+    <t>E34</t>
+  </si>
+  <si>
+    <t>E37</t>
+  </si>
+  <si>
+    <t>E38</t>
+  </si>
+  <si>
+    <t>E36</t>
+  </si>
+  <si>
+    <t>65HONGO</t>
+  </si>
+  <si>
+    <t>65RESET</t>
+  </si>
+  <si>
+    <t>65C_UNICO</t>
+  </si>
+  <si>
+    <t>65A0</t>
+  </si>
+  <si>
+    <t>65A1</t>
+  </si>
+  <si>
+    <t>65B0</t>
+  </si>
+  <si>
+    <t>65B1</t>
+  </si>
+  <si>
+    <t>65C0</t>
+  </si>
+  <si>
+    <t>65C1</t>
+  </si>
+  <si>
+    <t>65Y1</t>
+  </si>
+  <si>
+    <t>65Y2</t>
+  </si>
+  <si>
+    <t>65Y3</t>
+  </si>
+  <si>
+    <t>65Y4</t>
+  </si>
+  <si>
+    <t>65Y5</t>
+  </si>
+  <si>
+    <t>65Y6</t>
   </si>
 </sst>
 </file>
@@ -1875,7 +2136,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1911,10 +2172,55 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1932,52 +2238,16 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2305,8 +2575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873BA327-33BA-4188-8DF7-755A048216E2}">
   <dimension ref="B1:D321"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4085,10 +4355,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4479E5A1-3D83-48F1-9389-443073603DD9}">
-  <dimension ref="B3:AN31"/>
+  <dimension ref="B3:AN43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V25" sqref="V25"/>
+    <sheetView tabSelected="1" topLeftCell="K19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AF3" sqref="AF3:AN6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4101,50 +4371,50 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="22" t="s">
         <v>348</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="L3" s="26" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="L3" s="22" t="s">
         <v>349</v>
       </c>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="V3" s="26" t="s">
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="V3" s="22" t="s">
         <v>348</v>
       </c>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="26"/>
-      <c r="AF3" s="26" t="s">
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="22"/>
+      <c r="AD3" s="22"/>
+      <c r="AF3" s="22" t="s">
         <v>349</v>
       </c>
-      <c r="AG3" s="26"/>
-      <c r="AH3" s="26"/>
-      <c r="AI3" s="26"/>
-      <c r="AJ3" s="26"/>
-      <c r="AK3" s="26"/>
-      <c r="AL3" s="26"/>
-      <c r="AM3" s="26"/>
-      <c r="AN3" s="26"/>
+      <c r="AG3" s="22"/>
+      <c r="AH3" s="22"/>
+      <c r="AI3" s="22"/>
+      <c r="AJ3" s="22"/>
+      <c r="AK3" s="22"/>
+      <c r="AL3" s="22"/>
+      <c r="AM3" s="22"/>
+      <c r="AN3" s="22"/>
     </row>
     <row r="4" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
@@ -4287,86 +4557,86 @@
       <c r="K5" s="1">
         <v>0</v>
       </c>
-      <c r="L5" s="29" t="s">
+      <c r="L5" s="23" t="s">
         <v>321</v>
       </c>
-      <c r="M5" s="29" t="s">
-        <v>366</v>
-      </c>
-      <c r="N5" s="29" t="s">
-        <v>366</v>
-      </c>
-      <c r="O5" s="29" t="s">
+      <c r="M5" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="N5" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="O5" s="23" t="s">
         <v>347</v>
       </c>
-      <c r="P5" s="29" t="s">
+      <c r="P5" s="23" t="s">
         <v>346</v>
       </c>
-      <c r="Q5" s="29" t="s">
+      <c r="Q5" s="23" t="s">
         <v>345</v>
       </c>
-      <c r="R5" s="29" t="s">
+      <c r="R5" s="23" t="s">
         <v>344</v>
       </c>
-      <c r="S5" s="29" t="s">
+      <c r="S5" s="23" t="s">
         <v>343</v>
       </c>
-      <c r="T5" s="29" t="s">
+      <c r="T5" s="23" t="s">
         <v>342</v>
       </c>
-      <c r="V5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="W5" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="X5" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="Y5" s="4" t="s">
-        <v>526</v>
-      </c>
-      <c r="Z5" s="4" t="s">
-        <v>525</v>
-      </c>
-      <c r="AA5" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="AB5" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="AC5" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="AD5" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="AF5" s="34" t="s">
-        <v>333</v>
-      </c>
-      <c r="AG5" s="34" t="s">
-        <v>542</v>
-      </c>
-      <c r="AH5" s="34" t="s">
-        <v>541</v>
-      </c>
-      <c r="AI5" s="34" t="s">
-        <v>540</v>
-      </c>
-      <c r="AJ5" s="34" t="s">
-        <v>539</v>
-      </c>
-      <c r="AK5" s="34" t="s">
-        <v>538</v>
-      </c>
-      <c r="AL5" s="34" t="s">
-        <v>537</v>
-      </c>
-      <c r="AM5" s="34" t="s">
-        <v>536</v>
-      </c>
-      <c r="AN5" s="34" t="s">
-        <v>535</v>
+      <c r="V5" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="W5" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="X5" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y5" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="Z5" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="AA5" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="AB5" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="AC5" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="AD5" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="AF5" s="28" t="s">
+        <v>338</v>
+      </c>
+      <c r="AG5" s="28" t="s">
+        <v>366</v>
+      </c>
+      <c r="AH5" s="28" t="s">
+        <v>366</v>
+      </c>
+      <c r="AI5" s="28" t="s">
+        <v>629</v>
+      </c>
+      <c r="AJ5" s="28" t="s">
+        <v>628</v>
+      </c>
+      <c r="AK5" s="28" t="s">
+        <v>627</v>
+      </c>
+      <c r="AL5" s="28" t="s">
+        <v>626</v>
+      </c>
+      <c r="AM5" s="28" t="s">
+        <v>625</v>
+      </c>
+      <c r="AN5" s="28" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="6" spans="2:40" x14ac:dyDescent="0.25">
@@ -4400,51 +4670,51 @@
       <c r="K6" s="1">
         <v>1</v>
       </c>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="V6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>533</v>
-      </c>
-      <c r="Y6" s="4" t="s">
-        <v>532</v>
-      </c>
-      <c r="Z6" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="AA6" s="4" t="s">
-        <v>530</v>
-      </c>
-      <c r="AB6" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="AC6" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="AD6" s="4" t="s">
-        <v>527</v>
-      </c>
-      <c r="AF6" s="35"/>
-      <c r="AG6" s="35"/>
-      <c r="AH6" s="35"/>
-      <c r="AI6" s="35"/>
-      <c r="AJ6" s="35"/>
-      <c r="AK6" s="35"/>
-      <c r="AL6" s="35"/>
-      <c r="AM6" s="35"/>
-      <c r="AN6" s="35"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="V6" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="W6" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="X6" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y6" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="Z6" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="AA6" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="AB6" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="AC6" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="AD6" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="AF6" s="29"/>
+      <c r="AG6" s="29"/>
+      <c r="AH6" s="29"/>
+      <c r="AI6" s="29"/>
+      <c r="AJ6" s="29"/>
+      <c r="AK6" s="29"/>
+      <c r="AL6" s="29"/>
+      <c r="AM6" s="29"/>
+      <c r="AN6" s="29"/>
     </row>
     <row r="7" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
@@ -4477,31 +4747,31 @@
       <c r="K7" s="1">
         <v>2</v>
       </c>
-      <c r="L7" s="27" t="s">
+      <c r="L7" s="24" t="s">
         <v>324</v>
       </c>
-      <c r="M7" s="27" t="s">
-        <v>366</v>
-      </c>
-      <c r="N7" s="27" t="s">
-        <v>366</v>
-      </c>
-      <c r="O7" s="27" t="s">
+      <c r="M7" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="N7" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="O7" s="24" t="s">
         <v>373</v>
       </c>
-      <c r="P7" s="27" t="s">
+      <c r="P7" s="24" t="s">
         <v>374</v>
       </c>
-      <c r="Q7" s="27" t="s">
+      <c r="Q7" s="24" t="s">
         <v>375</v>
       </c>
-      <c r="R7" s="27" t="s">
+      <c r="R7" s="24" t="s">
         <v>376</v>
       </c>
-      <c r="S7" s="27" t="s">
+      <c r="S7" s="24" t="s">
         <v>377</v>
       </c>
-      <c r="T7" s="27" t="s">
+      <c r="T7" s="24" t="s">
         <v>378</v>
       </c>
     </row>
@@ -4536,15 +4806,15 @@
       <c r="K8" s="1">
         <v>3</v>
       </c>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
     </row>
     <row r="9" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
@@ -4577,31 +4847,31 @@
       <c r="K9" s="1">
         <v>4</v>
       </c>
-      <c r="L9" s="22" t="s">
+      <c r="L9" s="26" t="s">
         <v>325</v>
       </c>
-      <c r="M9" s="22" t="s">
-        <v>366</v>
-      </c>
-      <c r="N9" s="22" t="s">
-        <v>366</v>
-      </c>
-      <c r="O9" s="22" t="s">
+      <c r="M9" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="N9" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="O9" s="26" t="s">
         <v>393</v>
       </c>
-      <c r="P9" s="22" t="s">
+      <c r="P9" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="Q9" s="22" t="s">
+      <c r="Q9" s="26" t="s">
         <v>391</v>
       </c>
-      <c r="R9" s="22" t="s">
+      <c r="R9" s="26" t="s">
         <v>390</v>
       </c>
-      <c r="S9" s="22" t="s">
+      <c r="S9" s="26" t="s">
         <v>389</v>
       </c>
-      <c r="T9" s="22" t="s">
+      <c r="T9" s="26" t="s">
         <v>388</v>
       </c>
     </row>
@@ -4636,15 +4906,15 @@
       <c r="K10" s="1">
         <v>5</v>
       </c>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
     </row>
     <row r="11" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
@@ -4677,31 +4947,31 @@
       <c r="K11" s="1">
         <v>6</v>
       </c>
-      <c r="L11" s="24" t="s">
+      <c r="L11" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="M11" s="24" t="s">
+      <c r="M11" s="18" t="s">
         <v>414</v>
       </c>
-      <c r="N11" s="24" t="s">
+      <c r="N11" s="18" t="s">
         <v>413</v>
       </c>
-      <c r="O11" s="24" t="s">
+      <c r="O11" s="18" t="s">
         <v>412</v>
       </c>
-      <c r="P11" s="24" t="s">
+      <c r="P11" s="18" t="s">
         <v>411</v>
       </c>
-      <c r="Q11" s="24" t="s">
+      <c r="Q11" s="18" t="s">
         <v>410</v>
       </c>
-      <c r="R11" s="24" t="s">
+      <c r="R11" s="18" t="s">
         <v>409</v>
       </c>
-      <c r="S11" s="24" t="s">
+      <c r="S11" s="18" t="s">
         <v>408</v>
       </c>
-      <c r="T11" s="24" t="s">
+      <c r="T11" s="18" t="s">
         <v>407</v>
       </c>
     </row>
@@ -4736,15 +5006,15 @@
       <c r="K12" s="1">
         <v>7</v>
       </c>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
     </row>
     <row r="13" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
@@ -4777,31 +5047,31 @@
       <c r="K13" s="1">
         <v>8</v>
       </c>
-      <c r="L13" s="30" t="s">
+      <c r="L13" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="M13" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="N13" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="O13" s="30" t="s">
+      <c r="M13" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="N13" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="O13" s="16" t="s">
         <v>429</v>
       </c>
-      <c r="P13" s="30" t="s">
+      <c r="P13" s="16" t="s">
         <v>428</v>
       </c>
-      <c r="Q13" s="30" t="s">
+      <c r="Q13" s="16" t="s">
         <v>427</v>
       </c>
-      <c r="R13" s="30" t="s">
+      <c r="R13" s="16" t="s">
         <v>426</v>
       </c>
-      <c r="S13" s="30" t="s">
+      <c r="S13" s="16" t="s">
         <v>425</v>
       </c>
-      <c r="T13" s="30" t="s">
+      <c r="T13" s="16" t="s">
         <v>424</v>
       </c>
     </row>
@@ -4836,15 +5106,15 @@
       <c r="K14" s="1">
         <v>9</v>
       </c>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="31"/>
-      <c r="S14" s="31"/>
-      <c r="T14" s="31"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
     </row>
     <row r="15" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
@@ -4875,31 +5145,31 @@
       <c r="K15" s="1">
         <v>10</v>
       </c>
-      <c r="L15" s="32" t="s">
+      <c r="L15" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="M15" s="32" t="s">
+      <c r="M15" s="14" t="s">
         <v>450</v>
       </c>
-      <c r="N15" s="32" t="s">
+      <c r="N15" s="14" t="s">
         <v>449</v>
       </c>
-      <c r="O15" s="32" t="s">
+      <c r="O15" s="14" t="s">
         <v>448</v>
       </c>
-      <c r="P15" s="32" t="s">
+      <c r="P15" s="14" t="s">
         <v>447</v>
       </c>
-      <c r="Q15" s="32" t="s">
+      <c r="Q15" s="14" t="s">
         <v>446</v>
       </c>
-      <c r="R15" s="32" t="s">
+      <c r="R15" s="14" t="s">
         <v>445</v>
       </c>
-      <c r="S15" s="32" t="s">
+      <c r="S15" s="14" t="s">
         <v>444</v>
       </c>
-      <c r="T15" s="32" t="s">
+      <c r="T15" s="14" t="s">
         <v>443</v>
       </c>
     </row>
@@ -4934,15 +5204,15 @@
       <c r="K16" s="1">
         <v>11</v>
       </c>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="33"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
@@ -4975,31 +5245,31 @@
       <c r="K17" s="1">
         <v>12</v>
       </c>
-      <c r="L17" s="20" t="s">
+      <c r="L17" s="28" t="s">
         <v>329</v>
       </c>
-      <c r="M17" s="20" t="s">
-        <v>366</v>
-      </c>
-      <c r="N17" s="20" t="s">
-        <v>366</v>
-      </c>
-      <c r="O17" s="20" t="s">
+      <c r="M17" s="28" t="s">
+        <v>366</v>
+      </c>
+      <c r="N17" s="28" t="s">
+        <v>366</v>
+      </c>
+      <c r="O17" s="28" t="s">
         <v>469</v>
       </c>
-      <c r="P17" s="20" t="s">
+      <c r="P17" s="28" t="s">
         <v>456</v>
       </c>
-      <c r="Q17" s="20" t="s">
+      <c r="Q17" s="28" t="s">
         <v>455</v>
       </c>
-      <c r="R17" s="20" t="s">
+      <c r="R17" s="28" t="s">
         <v>454</v>
       </c>
-      <c r="S17" s="20" t="s">
+      <c r="S17" s="28" t="s">
         <v>453</v>
       </c>
-      <c r="T17" s="20" t="s">
+      <c r="T17" s="28" t="s">
         <v>451</v>
       </c>
     </row>
@@ -5034,15 +5304,15 @@
       <c r="K18" s="1">
         <v>13</v>
       </c>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
@@ -5075,31 +5345,31 @@
       <c r="K19" s="1">
         <v>14</v>
       </c>
-      <c r="L19" s="15" t="s">
+      <c r="L19" s="30" t="s">
         <v>330</v>
       </c>
-      <c r="M19" s="15" t="s">
+      <c r="M19" s="30" t="s">
         <v>492</v>
       </c>
-      <c r="N19" s="15" t="s">
+      <c r="N19" s="30" t="s">
         <v>491</v>
       </c>
-      <c r="O19" s="15" t="s">
+      <c r="O19" s="30" t="s">
         <v>490</v>
       </c>
-      <c r="P19" s="15" t="s">
+      <c r="P19" s="30" t="s">
         <v>489</v>
       </c>
-      <c r="Q19" s="15" t="s">
+      <c r="Q19" s="30" t="s">
         <v>488</v>
       </c>
-      <c r="R19" s="15" t="s">
+      <c r="R19" s="30" t="s">
         <v>487</v>
       </c>
-      <c r="S19" s="15" t="s">
+      <c r="S19" s="30" t="s">
         <v>452</v>
       </c>
-      <c r="T19" s="15" t="s">
+      <c r="T19" s="30" t="s">
         <v>486</v>
       </c>
     </row>
@@ -5134,58 +5404,58 @@
       <c r="K20" s="1">
         <v>15</v>
       </c>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="31"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
         <v>497</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="32" t="s">
         <v>498</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="19"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="34"/>
       <c r="K21" s="1">
         <v>16</v>
       </c>
-      <c r="L21" s="15" t="s">
+      <c r="L21" s="30" t="s">
         <v>331</v>
       </c>
-      <c r="M21" s="15" t="s">
-        <v>366</v>
-      </c>
-      <c r="N21" s="15" t="s">
-        <v>366</v>
-      </c>
-      <c r="O21" s="15" t="s">
-        <v>366</v>
-      </c>
-      <c r="P21" s="15" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q21" s="15" t="s">
+      <c r="M21" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="N21" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="O21" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="P21" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q21" s="30" t="s">
         <v>496</v>
       </c>
-      <c r="R21" s="15" t="s">
+      <c r="R21" s="30" t="s">
         <v>494</v>
       </c>
-      <c r="S21" s="15" t="s">
+      <c r="S21" s="30" t="s">
         <v>495</v>
       </c>
-      <c r="T21" s="15" t="s">
+      <c r="T21" s="30" t="s">
         <v>493</v>
       </c>
     </row>
@@ -5220,15 +5490,15 @@
       <c r="K22" s="1">
         <v>17</v>
       </c>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="31"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="11" t="s">
@@ -5261,31 +5531,31 @@
       <c r="K23" s="1">
         <v>18</v>
       </c>
-      <c r="L23" s="13" t="s">
+      <c r="L23" s="35" t="s">
         <v>332</v>
       </c>
-      <c r="M23" s="13" t="s">
+      <c r="M23" s="35" t="s">
         <v>520</v>
       </c>
-      <c r="N23" s="13" t="s">
+      <c r="N23" s="35" t="s">
         <v>519</v>
       </c>
-      <c r="O23" s="13" t="s">
+      <c r="O23" s="35" t="s">
         <v>518</v>
       </c>
-      <c r="P23" s="13" t="s">
+      <c r="P23" s="35" t="s">
         <v>517</v>
       </c>
-      <c r="Q23" s="13" t="s">
+      <c r="Q23" s="35" t="s">
         <v>516</v>
       </c>
-      <c r="R23" s="13" t="s">
+      <c r="R23" s="35" t="s">
         <v>515</v>
       </c>
-      <c r="S23" s="13" t="s">
+      <c r="S23" s="35" t="s">
         <v>514</v>
       </c>
-      <c r="T23" s="13" t="s">
+      <c r="T23" s="35" t="s">
         <v>513</v>
       </c>
     </row>
@@ -5320,15 +5590,15 @@
       <c r="K24" s="1">
         <v>19</v>
       </c>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="14"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="36"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
@@ -5361,31 +5631,31 @@
       <c r="K25" s="1">
         <v>20</v>
       </c>
-      <c r="L25" s="34" t="s">
+      <c r="L25" s="20" t="s">
         <v>333</v>
       </c>
-      <c r="M25" s="34" t="s">
+      <c r="M25" s="20" t="s">
         <v>542</v>
       </c>
-      <c r="N25" s="34" t="s">
+      <c r="N25" s="20" t="s">
         <v>541</v>
       </c>
-      <c r="O25" s="34" t="s">
+      <c r="O25" s="20" t="s">
         <v>540</v>
       </c>
-      <c r="P25" s="34" t="s">
+      <c r="P25" s="20" t="s">
         <v>539</v>
       </c>
-      <c r="Q25" s="34" t="s">
+      <c r="Q25" s="20" t="s">
         <v>538</v>
       </c>
-      <c r="R25" s="34" t="s">
+      <c r="R25" s="20" t="s">
         <v>537</v>
       </c>
-      <c r="S25" s="34" t="s">
+      <c r="S25" s="20" t="s">
         <v>536</v>
       </c>
-      <c r="T25" s="34" t="s">
+      <c r="T25" s="20" t="s">
         <v>535</v>
       </c>
     </row>
@@ -5420,70 +5690,828 @@
       <c r="K26" s="1">
         <v>21</v>
       </c>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="35"/>
-      <c r="S26" s="35"/>
-      <c r="T26" s="35"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="6" t="s">
         <v>24</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>551</v>
       </c>
       <c r="K27" s="1">
         <v>22</v>
       </c>
+      <c r="L27" s="37" t="s">
+        <v>334</v>
+      </c>
+      <c r="M27" s="37" t="s">
+        <v>543</v>
+      </c>
+      <c r="N27" s="37" t="s">
+        <v>544</v>
+      </c>
+      <c r="O27" s="37" t="s">
+        <v>545</v>
+      </c>
+      <c r="P27" s="37" t="s">
+        <v>546</v>
+      </c>
+      <c r="Q27" s="37" t="s">
+        <v>547</v>
+      </c>
+      <c r="R27" s="37" t="s">
+        <v>550</v>
+      </c>
+      <c r="S27" s="37" t="s">
+        <v>549</v>
+      </c>
+      <c r="T27" s="37" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="6" t="s">
         <v>25</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>557</v>
       </c>
       <c r="K28" s="1">
         <v>23</v>
       </c>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="37"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="37"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="6" t="s">
         <v>26</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>564</v>
       </c>
       <c r="K29" s="1">
         <v>24</v>
       </c>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="37"/>
+      <c r="S29" s="37"/>
+      <c r="T29" s="37"/>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B30" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>566</v>
+      </c>
       <c r="K30" s="1">
         <v>25</v>
       </c>
+      <c r="L30" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="M30" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="N30" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="O30" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="P30" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q30" s="18" t="s">
+        <v>575</v>
+      </c>
+      <c r="R30" s="18" t="s">
+        <v>589</v>
+      </c>
+      <c r="S30" s="18" t="s">
+        <v>574</v>
+      </c>
+      <c r="T30" s="18" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B31" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>569</v>
+      </c>
       <c r="K31" s="1">
         <v>26</v>
       </c>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="K32" s="1">
+        <v>27</v>
+      </c>
+      <c r="L32" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="M32" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="N32" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="O32" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="P32" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q32" s="16" t="s">
+        <v>591</v>
+      </c>
+      <c r="R32" s="16" t="s">
+        <v>590</v>
+      </c>
+      <c r="S32" s="16" t="s">
+        <v>588</v>
+      </c>
+      <c r="T32" s="16" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B33" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="K33" s="1">
+        <v>28</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="17"/>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B34" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>592</v>
+      </c>
+      <c r="K34" s="1">
+        <v>29</v>
+      </c>
+      <c r="L34" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="M34" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="N34" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="O34" s="14" t="s">
+        <v>609</v>
+      </c>
+      <c r="P34" s="14" t="s">
+        <v>608</v>
+      </c>
+      <c r="Q34" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="R34" s="14" t="s">
+        <v>606</v>
+      </c>
+      <c r="S34" s="14" t="s">
+        <v>605</v>
+      </c>
+      <c r="T34" s="14" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B35" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="K35" s="1">
+        <v>30</v>
+      </c>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="15"/>
+      <c r="S35" s="15"/>
+      <c r="T35" s="15"/>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B36" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="K36" s="1">
+        <v>31</v>
+      </c>
+      <c r="L36" s="28" t="s">
+        <v>338</v>
+      </c>
+      <c r="M36" s="28" t="s">
+        <v>366</v>
+      </c>
+      <c r="N36" s="28" t="s">
+        <v>366</v>
+      </c>
+      <c r="O36" s="28" t="s">
+        <v>629</v>
+      </c>
+      <c r="P36" s="28" t="s">
+        <v>628</v>
+      </c>
+      <c r="Q36" s="28" t="s">
+        <v>627</v>
+      </c>
+      <c r="R36" s="28" t="s">
+        <v>626</v>
+      </c>
+      <c r="S36" s="28" t="s">
+        <v>625</v>
+      </c>
+      <c r="T36" s="28" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B37" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="K37" s="1">
+        <v>32</v>
+      </c>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="29"/>
+      <c r="T37" s="29"/>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B38" s="10" t="s">
+        <v>610</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="1">
+        <v>33</v>
+      </c>
+      <c r="L38" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="M38" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="N38" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="30"/>
+      <c r="R38" s="30"/>
+      <c r="S38" s="30"/>
+      <c r="T38" s="30"/>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B39" s="10" t="s">
+        <v>611</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="1">
+        <v>34</v>
+      </c>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="31"/>
+      <c r="Q39" s="31"/>
+      <c r="R39" s="31"/>
+      <c r="S39" s="31"/>
+      <c r="T39" s="31"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B40" s="13" t="s">
+        <v>614</v>
+      </c>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="1">
+        <v>35</v>
+      </c>
+      <c r="L40" s="35" t="s">
+        <v>340</v>
+      </c>
+      <c r="M40" s="35" t="s">
+        <v>366</v>
+      </c>
+      <c r="N40" s="35" t="s">
+        <v>366</v>
+      </c>
+      <c r="O40" s="35"/>
+      <c r="P40" s="35"/>
+      <c r="Q40" s="35"/>
+      <c r="R40" s="35"/>
+      <c r="S40" s="35"/>
+      <c r="T40" s="35"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B41" s="13" t="s">
+        <v>614</v>
+      </c>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="1">
+        <v>36</v>
+      </c>
+      <c r="L41" s="36"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="36"/>
+      <c r="P41" s="36"/>
+      <c r="Q41" s="36"/>
+      <c r="R41" s="36"/>
+      <c r="S41" s="36"/>
+      <c r="T41" s="36"/>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="1">
+        <v>37</v>
+      </c>
+      <c r="L42" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="M42" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="N42" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="O42" s="20"/>
+      <c r="P42" s="20"/>
+      <c r="Q42" s="20"/>
+      <c r="R42" s="20"/>
+      <c r="S42" s="20"/>
+      <c r="T42" s="20"/>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="38">
+        <v>38</v>
+      </c>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="21"/>
+      <c r="R43" s="21"/>
+      <c r="S43" s="21"/>
+      <c r="T43" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="113">
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="P25:P26"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="R25:R26"/>
-    <mergeCell ref="S25:S26"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="T15:T16"/>
+  <mergeCells count="185">
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="O42:O43"/>
+    <mergeCell ref="P42:P43"/>
+    <mergeCell ref="Q42:Q43"/>
+    <mergeCell ref="R42:R43"/>
+    <mergeCell ref="S42:S43"/>
+    <mergeCell ref="T42:T43"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="O40:O41"/>
+    <mergeCell ref="P40:P41"/>
+    <mergeCell ref="Q40:Q41"/>
+    <mergeCell ref="R40:R41"/>
+    <mergeCell ref="S40:S41"/>
+    <mergeCell ref="T40:T41"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="O38:O39"/>
+    <mergeCell ref="P38:P39"/>
+    <mergeCell ref="Q38:Q39"/>
+    <mergeCell ref="R38:R39"/>
+    <mergeCell ref="S38:S39"/>
+    <mergeCell ref="T38:T39"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="O36:O37"/>
+    <mergeCell ref="P36:P37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="R36:R37"/>
+    <mergeCell ref="S36:S37"/>
+    <mergeCell ref="T36:T37"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="R23:R24"/>
+    <mergeCell ref="S23:S24"/>
+    <mergeCell ref="T23:T24"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="S21:S22"/>
+    <mergeCell ref="T21:T22"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="AF3:AN3"/>
+    <mergeCell ref="AL5:AL6"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AN5:AN6"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="V3:AD3"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="T7:T8"/>
     <mergeCell ref="O13:O14"/>
     <mergeCell ref="P13:P14"/>
     <mergeCell ref="B3:J3"/>
@@ -5507,78 +6535,67 @@
     <mergeCell ref="L13:L14"/>
     <mergeCell ref="M13:M14"/>
     <mergeCell ref="N13:N14"/>
-    <mergeCell ref="V3:AD3"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="AF3:AN3"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="P30:P31"/>
+    <mergeCell ref="Q30:Q31"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="Q27:Q29"/>
+    <mergeCell ref="P27:P29"/>
+    <mergeCell ref="O27:O29"/>
+    <mergeCell ref="N27:N29"/>
+    <mergeCell ref="M27:M29"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="R30:R31"/>
+    <mergeCell ref="S30:S31"/>
+    <mergeCell ref="T30:T31"/>
     <mergeCell ref="AF5:AF6"/>
     <mergeCell ref="AG5:AG6"/>
     <mergeCell ref="AH5:AH6"/>
     <mergeCell ref="AI5:AI6"/>
     <mergeCell ref="AJ5:AJ6"/>
     <mergeCell ref="AK5:AK6"/>
-    <mergeCell ref="AL5:AL6"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="R21:R22"/>
-    <mergeCell ref="S21:S22"/>
-    <mergeCell ref="T21:T22"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="R23:R24"/>
-    <mergeCell ref="S23:S24"/>
-    <mergeCell ref="T23:T24"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="T27:T29"/>
+    <mergeCell ref="S27:S29"/>
+    <mergeCell ref="R27:R29"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="R32:R33"/>
+    <mergeCell ref="S32:S33"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="O34:O35"/>
+    <mergeCell ref="P34:P35"/>
+    <mergeCell ref="Q34:Q35"/>
+    <mergeCell ref="R34:R35"/>
+    <mergeCell ref="S34:S35"/>
+    <mergeCell ref="T34:T35"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FluidE-S/RELACION E-S.xlsx
+++ b/FluidE-S/RELACION E-S.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\GitHub\PLC\FluidE-S\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CA4266-E7E9-4BF2-814B-7AA404BB1ECA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88EA7681-19FF-4A91-932A-A8954543F67D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{31BB8279-5BB6-4433-890C-37928397B367}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" activeTab="1" xr2:uid="{31BB8279-5BB6-4433-890C-37928397B367}"/>
   </bookViews>
   <sheets>
     <sheet name="Direcciones por ejercicio" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="683">
   <si>
     <t xml:space="preserve">ejercicios </t>
   </si>
@@ -1916,6 +1916,165 @@
   </si>
   <si>
     <t>65Y6</t>
+  </si>
+  <si>
+    <t>67HONGO</t>
+  </si>
+  <si>
+    <t>67RESET</t>
+  </si>
+  <si>
+    <t>67C_UNICO</t>
+  </si>
+  <si>
+    <t>67C_CONTINUO</t>
+  </si>
+  <si>
+    <t>67PARO</t>
+  </si>
+  <si>
+    <t>67A0</t>
+  </si>
+  <si>
+    <t>67A1</t>
+  </si>
+  <si>
+    <t>67B0</t>
+  </si>
+  <si>
+    <t>67B1</t>
+  </si>
+  <si>
+    <t>67C0</t>
+  </si>
+  <si>
+    <t>67C1</t>
+  </si>
+  <si>
+    <t>67D0</t>
+  </si>
+  <si>
+    <t>67D1</t>
+  </si>
+  <si>
+    <t>67Y1</t>
+  </si>
+  <si>
+    <t>67Y2</t>
+  </si>
+  <si>
+    <t>67Y3</t>
+  </si>
+  <si>
+    <t>67Y4</t>
+  </si>
+  <si>
+    <t>67Y5</t>
+  </si>
+  <si>
+    <t>67Y6</t>
+  </si>
+  <si>
+    <t>67Y8</t>
+  </si>
+  <si>
+    <t>67Y7</t>
+  </si>
+  <si>
+    <t>E35</t>
+  </si>
+  <si>
+    <t>68HONGO</t>
+  </si>
+  <si>
+    <t>68RESET</t>
+  </si>
+  <si>
+    <t>68C_UNICO</t>
+  </si>
+  <si>
+    <t>68A0</t>
+  </si>
+  <si>
+    <t>68A1</t>
+  </si>
+  <si>
+    <t>68B0</t>
+  </si>
+  <si>
+    <t>68B1</t>
+  </si>
+  <si>
+    <t>E39</t>
+  </si>
+  <si>
+    <t>69HONGO</t>
+  </si>
+  <si>
+    <t>69RESET</t>
+  </si>
+  <si>
+    <t>69AUTOMATICO</t>
+  </si>
+  <si>
+    <t>69MANUAL</t>
+  </si>
+  <si>
+    <t>69C_CONTINUO</t>
+  </si>
+  <si>
+    <t>69C_UNICO</t>
+  </si>
+  <si>
+    <t>69MARCHA</t>
+  </si>
+  <si>
+    <t>69PARO</t>
+  </si>
+  <si>
+    <t>69DET_PIEZA</t>
+  </si>
+  <si>
+    <t>69RES</t>
+  </si>
+  <si>
+    <t>69A0</t>
+  </si>
+  <si>
+    <t>69A1</t>
+  </si>
+  <si>
+    <t>69B1</t>
+  </si>
+  <si>
+    <t>69C0</t>
+  </si>
+  <si>
+    <t>69C1</t>
+  </si>
+  <si>
+    <t>69D0</t>
+  </si>
+  <si>
+    <t>69D1</t>
+  </si>
+  <si>
+    <t>69Y1</t>
+  </si>
+  <si>
+    <t>69Y2</t>
+  </si>
+  <si>
+    <t>69Y3</t>
+  </si>
+  <si>
+    <t>69Y4</t>
+  </si>
+  <si>
+    <t>69Y5</t>
+  </si>
+  <si>
+    <t>69Y6</t>
   </si>
 </sst>
 </file>
@@ -2136,7 +2295,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2175,22 +2334,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2199,34 +2343,22 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2238,16 +2370,46 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4355,10 +4517,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4479E5A1-3D83-48F1-9389-443073603DD9}">
-  <dimension ref="B3:AN43"/>
+  <dimension ref="B3:AN44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AF3" sqref="AF3:AN6"/>
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AL11" sqref="AL11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4368,53 +4530,54 @@
     <col min="3" max="10" width="13.7109375" customWidth="1"/>
     <col min="11" max="11" width="6.5703125" customWidth="1"/>
     <col min="12" max="20" width="8.7109375" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="26" t="s">
         <v>348</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="L3" s="22" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="L3" s="26" t="s">
         <v>349</v>
       </c>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="V3" s="22" t="s">
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="V3" s="26" t="s">
         <v>348</v>
       </c>
-      <c r="W3" s="22"/>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="22"/>
-      <c r="AA3" s="22"/>
-      <c r="AB3" s="22"/>
-      <c r="AC3" s="22"/>
-      <c r="AD3" s="22"/>
-      <c r="AF3" s="22" t="s">
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AF3" s="26" t="s">
         <v>349</v>
       </c>
-      <c r="AG3" s="22"/>
-      <c r="AH3" s="22"/>
-      <c r="AI3" s="22"/>
-      <c r="AJ3" s="22"/>
-      <c r="AK3" s="22"/>
-      <c r="AL3" s="22"/>
-      <c r="AM3" s="22"/>
-      <c r="AN3" s="22"/>
+      <c r="AG3" s="26"/>
+      <c r="AH3" s="26"/>
+      <c r="AI3" s="26"/>
+      <c r="AJ3" s="26"/>
+      <c r="AK3" s="26"/>
+      <c r="AL3" s="26"/>
+      <c r="AM3" s="26"/>
+      <c r="AN3" s="26"/>
     </row>
     <row r="4" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
@@ -4557,86 +4720,74 @@
       <c r="K5" s="1">
         <v>0</v>
       </c>
-      <c r="L5" s="23" t="s">
+      <c r="L5" s="33" t="s">
         <v>321</v>
       </c>
-      <c r="M5" s="23" t="s">
-        <v>366</v>
-      </c>
-      <c r="N5" s="23" t="s">
-        <v>366</v>
-      </c>
-      <c r="O5" s="23" t="s">
+      <c r="M5" s="33" t="s">
+        <v>366</v>
+      </c>
+      <c r="N5" s="33" t="s">
+        <v>366</v>
+      </c>
+      <c r="O5" s="33" t="s">
         <v>347</v>
       </c>
-      <c r="P5" s="23" t="s">
+      <c r="P5" s="33" t="s">
         <v>346</v>
       </c>
-      <c r="Q5" s="23" t="s">
+      <c r="Q5" s="33" t="s">
         <v>345</v>
       </c>
-      <c r="R5" s="23" t="s">
+      <c r="R5" s="33" t="s">
         <v>344</v>
       </c>
-      <c r="S5" s="23" t="s">
+      <c r="S5" s="33" t="s">
         <v>343</v>
       </c>
-      <c r="T5" s="23" t="s">
+      <c r="T5" s="33" t="s">
         <v>342</v>
       </c>
-      <c r="V5" s="9" t="s">
-        <v>578</v>
-      </c>
-      <c r="W5" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="X5" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="Y5" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="Z5" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="AA5" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="AB5" s="9" t="s">
-        <v>617</v>
-      </c>
-      <c r="AC5" s="9" t="s">
-        <v>616</v>
-      </c>
-      <c r="AD5" s="9" t="s">
-        <v>615</v>
-      </c>
-      <c r="AF5" s="28" t="s">
-        <v>338</v>
-      </c>
-      <c r="AG5" s="28" t="s">
-        <v>366</v>
-      </c>
-      <c r="AH5" s="28" t="s">
-        <v>366</v>
-      </c>
-      <c r="AI5" s="28" t="s">
-        <v>629</v>
-      </c>
-      <c r="AJ5" s="28" t="s">
-        <v>628</v>
-      </c>
-      <c r="AK5" s="28" t="s">
-        <v>627</v>
-      </c>
-      <c r="AL5" s="28" t="s">
-        <v>626</v>
-      </c>
-      <c r="AM5" s="28" t="s">
-        <v>625</v>
-      </c>
-      <c r="AN5" s="28" t="s">
-        <v>624</v>
+      <c r="V5" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="AD5" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="AF5" s="39" t="s">
+        <v>341</v>
+      </c>
+      <c r="AG5" s="39" t="s">
+        <v>366</v>
+      </c>
+      <c r="AH5" s="39" t="s">
+        <v>366</v>
+      </c>
+      <c r="AI5" s="39" t="s">
+        <v>682</v>
+      </c>
+      <c r="AJ5" s="39" t="s">
+        <v>681</v>
+      </c>
+      <c r="AK5" s="39" t="s">
+        <v>680</v>
+      </c>
+      <c r="AL5" s="39" t="s">
+        <v>679</v>
+      </c>
+      <c r="AM5" s="39" t="s">
+        <v>678</v>
+      </c>
+      <c r="AN5" s="39" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="6" spans="2:40" x14ac:dyDescent="0.25">
@@ -4670,51 +4821,51 @@
       <c r="K6" s="1">
         <v>1</v>
       </c>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="V6" s="9" t="s">
-        <v>579</v>
-      </c>
-      <c r="W6" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="X6" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="Y6" s="9" t="s">
-        <v>623</v>
-      </c>
-      <c r="Z6" s="9" t="s">
-        <v>622</v>
-      </c>
-      <c r="AA6" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="AB6" s="9" t="s">
-        <v>620</v>
-      </c>
-      <c r="AC6" s="9" t="s">
-        <v>619</v>
-      </c>
-      <c r="AD6" s="9" t="s">
-        <v>618</v>
-      </c>
-      <c r="AF6" s="29"/>
-      <c r="AG6" s="29"/>
-      <c r="AH6" s="29"/>
-      <c r="AI6" s="29"/>
-      <c r="AJ6" s="29"/>
-      <c r="AK6" s="29"/>
-      <c r="AL6" s="29"/>
-      <c r="AM6" s="29"/>
-      <c r="AN6" s="29"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="33"/>
+      <c r="V6" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="AF6" s="39"/>
+      <c r="AG6" s="39"/>
+      <c r="AH6" s="39"/>
+      <c r="AI6" s="39"/>
+      <c r="AJ6" s="39"/>
+      <c r="AK6" s="39"/>
+      <c r="AL6" s="39"/>
+      <c r="AM6" s="39"/>
+      <c r="AN6" s="39"/>
     </row>
     <row r="7" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
@@ -4747,33 +4898,69 @@
       <c r="K7" s="1">
         <v>2</v>
       </c>
-      <c r="L7" s="24" t="s">
+      <c r="L7" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="M7" s="24" t="s">
-        <v>366</v>
-      </c>
-      <c r="N7" s="24" t="s">
-        <v>366</v>
-      </c>
-      <c r="O7" s="24" t="s">
+      <c r="M7" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="N7" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="O7" s="31" t="s">
         <v>373</v>
       </c>
-      <c r="P7" s="24" t="s">
+      <c r="P7" s="31" t="s">
         <v>374</v>
       </c>
-      <c r="Q7" s="24" t="s">
+      <c r="Q7" s="31" t="s">
         <v>375</v>
       </c>
-      <c r="R7" s="24" t="s">
+      <c r="R7" s="31" t="s">
         <v>376</v>
       </c>
-      <c r="S7" s="24" t="s">
+      <c r="S7" s="31" t="s">
         <v>377</v>
       </c>
-      <c r="T7" s="24" t="s">
+      <c r="T7" s="31" t="s">
         <v>378</v>
       </c>
+      <c r="V7" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="AA7" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="AB7" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="AC7" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="AD7" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="AF7" s="39"/>
+      <c r="AG7" s="39"/>
+      <c r="AH7" s="39"/>
+      <c r="AI7" s="39"/>
+      <c r="AJ7" s="39"/>
+      <c r="AK7" s="39"/>
+      <c r="AL7" s="39"/>
+      <c r="AM7" s="39"/>
+      <c r="AN7" s="39"/>
     </row>
     <row r="8" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
@@ -4806,15 +4993,15 @@
       <c r="K8" s="1">
         <v>3</v>
       </c>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
     </row>
     <row r="9" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
@@ -4847,31 +5034,31 @@
       <c r="K9" s="1">
         <v>4</v>
       </c>
-      <c r="L9" s="26" t="s">
+      <c r="L9" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="M9" s="26" t="s">
-        <v>366</v>
-      </c>
-      <c r="N9" s="26" t="s">
-        <v>366</v>
-      </c>
-      <c r="O9" s="26" t="s">
+      <c r="M9" s="27" t="s">
+        <v>366</v>
+      </c>
+      <c r="N9" s="27" t="s">
+        <v>366</v>
+      </c>
+      <c r="O9" s="27" t="s">
         <v>393</v>
       </c>
-      <c r="P9" s="26" t="s">
+      <c r="P9" s="27" t="s">
         <v>392</v>
       </c>
-      <c r="Q9" s="26" t="s">
+      <c r="Q9" s="27" t="s">
         <v>391</v>
       </c>
-      <c r="R9" s="26" t="s">
+      <c r="R9" s="27" t="s">
         <v>390</v>
       </c>
-      <c r="S9" s="26" t="s">
+      <c r="S9" s="27" t="s">
         <v>389</v>
       </c>
-      <c r="T9" s="26" t="s">
+      <c r="T9" s="27" t="s">
         <v>388</v>
       </c>
     </row>
@@ -4906,15 +5093,15 @@
       <c r="K10" s="1">
         <v>5</v>
       </c>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
     </row>
     <row r="11" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
@@ -4947,31 +5134,31 @@
       <c r="K11" s="1">
         <v>6</v>
       </c>
-      <c r="L11" s="18" t="s">
+      <c r="L11" s="29" t="s">
         <v>326</v>
       </c>
-      <c r="M11" s="18" t="s">
+      <c r="M11" s="29" t="s">
         <v>414</v>
       </c>
-      <c r="N11" s="18" t="s">
+      <c r="N11" s="29" t="s">
         <v>413</v>
       </c>
-      <c r="O11" s="18" t="s">
+      <c r="O11" s="29" t="s">
         <v>412</v>
       </c>
-      <c r="P11" s="18" t="s">
+      <c r="P11" s="29" t="s">
         <v>411</v>
       </c>
-      <c r="Q11" s="18" t="s">
+      <c r="Q11" s="29" t="s">
         <v>410</v>
       </c>
-      <c r="R11" s="18" t="s">
+      <c r="R11" s="29" t="s">
         <v>409</v>
       </c>
-      <c r="S11" s="18" t="s">
+      <c r="S11" s="29" t="s">
         <v>408</v>
       </c>
-      <c r="T11" s="18" t="s">
+      <c r="T11" s="29" t="s">
         <v>407</v>
       </c>
     </row>
@@ -5006,15 +5193,15 @@
       <c r="K12" s="1">
         <v>7</v>
       </c>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
     </row>
     <row r="13" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
@@ -5047,31 +5234,31 @@
       <c r="K13" s="1">
         <v>8</v>
       </c>
-      <c r="L13" s="16" t="s">
+      <c r="L13" s="34" t="s">
         <v>327</v>
       </c>
-      <c r="M13" s="16" t="s">
-        <v>366</v>
-      </c>
-      <c r="N13" s="16" t="s">
-        <v>366</v>
-      </c>
-      <c r="O13" s="16" t="s">
+      <c r="M13" s="34" t="s">
+        <v>366</v>
+      </c>
+      <c r="N13" s="34" t="s">
+        <v>366</v>
+      </c>
+      <c r="O13" s="34" t="s">
         <v>429</v>
       </c>
-      <c r="P13" s="16" t="s">
+      <c r="P13" s="34" t="s">
         <v>428</v>
       </c>
-      <c r="Q13" s="16" t="s">
+      <c r="Q13" s="34" t="s">
         <v>427</v>
       </c>
-      <c r="R13" s="16" t="s">
+      <c r="R13" s="34" t="s">
         <v>426</v>
       </c>
-      <c r="S13" s="16" t="s">
+      <c r="S13" s="34" t="s">
         <v>425</v>
       </c>
-      <c r="T13" s="16" t="s">
+      <c r="T13" s="34" t="s">
         <v>424</v>
       </c>
     </row>
@@ -5106,15 +5293,15 @@
       <c r="K14" s="1">
         <v>9</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="35"/>
     </row>
     <row r="15" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
@@ -5145,31 +5332,31 @@
       <c r="K15" s="1">
         <v>10</v>
       </c>
-      <c r="L15" s="14" t="s">
+      <c r="L15" s="36" t="s">
         <v>328</v>
       </c>
-      <c r="M15" s="14" t="s">
+      <c r="M15" s="36" t="s">
         <v>450</v>
       </c>
-      <c r="N15" s="14" t="s">
+      <c r="N15" s="36" t="s">
         <v>449</v>
       </c>
-      <c r="O15" s="14" t="s">
+      <c r="O15" s="36" t="s">
         <v>448</v>
       </c>
-      <c r="P15" s="14" t="s">
+      <c r="P15" s="36" t="s">
         <v>447</v>
       </c>
-      <c r="Q15" s="14" t="s">
+      <c r="Q15" s="36" t="s">
         <v>446</v>
       </c>
-      <c r="R15" s="14" t="s">
+      <c r="R15" s="36" t="s">
         <v>445</v>
       </c>
-      <c r="S15" s="14" t="s">
+      <c r="S15" s="36" t="s">
         <v>444</v>
       </c>
-      <c r="T15" s="14" t="s">
+      <c r="T15" s="36" t="s">
         <v>443</v>
       </c>
     </row>
@@ -5204,15 +5391,15 @@
       <c r="K16" s="1">
         <v>11</v>
       </c>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="37"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
@@ -5245,31 +5432,31 @@
       <c r="K17" s="1">
         <v>12</v>
       </c>
-      <c r="L17" s="28" t="s">
+      <c r="L17" s="21" t="s">
         <v>329</v>
       </c>
-      <c r="M17" s="28" t="s">
-        <v>366</v>
-      </c>
-      <c r="N17" s="28" t="s">
-        <v>366</v>
-      </c>
-      <c r="O17" s="28" t="s">
+      <c r="M17" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="N17" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="O17" s="21" t="s">
         <v>469</v>
       </c>
-      <c r="P17" s="28" t="s">
+      <c r="P17" s="21" t="s">
         <v>456</v>
       </c>
-      <c r="Q17" s="28" t="s">
+      <c r="Q17" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="R17" s="28" t="s">
+      <c r="R17" s="21" t="s">
         <v>454</v>
       </c>
-      <c r="S17" s="28" t="s">
+      <c r="S17" s="21" t="s">
         <v>453</v>
       </c>
-      <c r="T17" s="28" t="s">
+      <c r="T17" s="21" t="s">
         <v>451</v>
       </c>
     </row>
@@ -5304,15 +5491,15 @@
       <c r="K18" s="1">
         <v>13</v>
       </c>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
@@ -5345,31 +5532,31 @@
       <c r="K19" s="1">
         <v>14</v>
       </c>
-      <c r="L19" s="30" t="s">
+      <c r="L19" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="M19" s="30" t="s">
+      <c r="M19" s="19" t="s">
         <v>492</v>
       </c>
-      <c r="N19" s="30" t="s">
+      <c r="N19" s="19" t="s">
         <v>491</v>
       </c>
-      <c r="O19" s="30" t="s">
+      <c r="O19" s="19" t="s">
         <v>490</v>
       </c>
-      <c r="P19" s="30" t="s">
+      <c r="P19" s="19" t="s">
         <v>489</v>
       </c>
-      <c r="Q19" s="30" t="s">
+      <c r="Q19" s="19" t="s">
         <v>488</v>
       </c>
-      <c r="R19" s="30" t="s">
+      <c r="R19" s="19" t="s">
         <v>487</v>
       </c>
-      <c r="S19" s="30" t="s">
+      <c r="S19" s="19" t="s">
         <v>452</v>
       </c>
-      <c r="T19" s="30" t="s">
+      <c r="T19" s="19" t="s">
         <v>486</v>
       </c>
     </row>
@@ -5404,58 +5591,58 @@
       <c r="K20" s="1">
         <v>15</v>
       </c>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="31"/>
-      <c r="T20" s="31"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
         <v>497</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="23" t="s">
         <v>498</v>
       </c>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="34"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="25"/>
       <c r="K21" s="1">
         <v>16</v>
       </c>
-      <c r="L21" s="30" t="s">
+      <c r="L21" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="M21" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="N21" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="O21" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="P21" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q21" s="30" t="s">
+      <c r="M21" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="N21" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="O21" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="P21" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q21" s="19" t="s">
         <v>496</v>
       </c>
-      <c r="R21" s="30" t="s">
+      <c r="R21" s="19" t="s">
         <v>494</v>
       </c>
-      <c r="S21" s="30" t="s">
+      <c r="S21" s="19" t="s">
         <v>495</v>
       </c>
-      <c r="T21" s="30" t="s">
+      <c r="T21" s="19" t="s">
         <v>493</v>
       </c>
     </row>
@@ -5490,15 +5677,15 @@
       <c r="K22" s="1">
         <v>17</v>
       </c>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="31"/>
-      <c r="S22" s="31"/>
-      <c r="T22" s="31"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="11" t="s">
@@ -5531,31 +5718,31 @@
       <c r="K23" s="1">
         <v>18</v>
       </c>
-      <c r="L23" s="35" t="s">
+      <c r="L23" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="M23" s="35" t="s">
+      <c r="M23" s="17" t="s">
         <v>520</v>
       </c>
-      <c r="N23" s="35" t="s">
+      <c r="N23" s="17" t="s">
         <v>519</v>
       </c>
-      <c r="O23" s="35" t="s">
+      <c r="O23" s="17" t="s">
         <v>518</v>
       </c>
-      <c r="P23" s="35" t="s">
+      <c r="P23" s="17" t="s">
         <v>517</v>
       </c>
-      <c r="Q23" s="35" t="s">
+      <c r="Q23" s="17" t="s">
         <v>516</v>
       </c>
-      <c r="R23" s="35" t="s">
+      <c r="R23" s="17" t="s">
         <v>515</v>
       </c>
-      <c r="S23" s="35" t="s">
+      <c r="S23" s="17" t="s">
         <v>514</v>
       </c>
-      <c r="T23" s="35" t="s">
+      <c r="T23" s="17" t="s">
         <v>513</v>
       </c>
     </row>
@@ -5590,15 +5777,15 @@
       <c r="K24" s="1">
         <v>19</v>
       </c>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="36"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="36"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
@@ -5631,31 +5818,31 @@
       <c r="K25" s="1">
         <v>20</v>
       </c>
-      <c r="L25" s="20" t="s">
+      <c r="L25" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="M25" s="20" t="s">
+      <c r="M25" s="15" t="s">
         <v>542</v>
       </c>
-      <c r="N25" s="20" t="s">
+      <c r="N25" s="15" t="s">
         <v>541</v>
       </c>
-      <c r="O25" s="20" t="s">
+      <c r="O25" s="15" t="s">
         <v>540</v>
       </c>
-      <c r="P25" s="20" t="s">
+      <c r="P25" s="15" t="s">
         <v>539</v>
       </c>
-      <c r="Q25" s="20" t="s">
+      <c r="Q25" s="15" t="s">
         <v>538</v>
       </c>
-      <c r="R25" s="20" t="s">
+      <c r="R25" s="15" t="s">
         <v>537</v>
       </c>
-      <c r="S25" s="20" t="s">
+      <c r="S25" s="15" t="s">
         <v>536</v>
       </c>
-      <c r="T25" s="20" t="s">
+      <c r="T25" s="15" t="s">
         <v>535</v>
       </c>
     </row>
@@ -5690,15 +5877,15 @@
       <c r="K26" s="1">
         <v>21</v>
       </c>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="21"/>
-      <c r="S26" s="21"/>
-      <c r="T26" s="21"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
@@ -5731,31 +5918,31 @@
       <c r="K27" s="1">
         <v>22</v>
       </c>
-      <c r="L27" s="37" t="s">
+      <c r="L27" s="38" t="s">
         <v>334</v>
       </c>
-      <c r="M27" s="37" t="s">
+      <c r="M27" s="38" t="s">
         <v>543</v>
       </c>
-      <c r="N27" s="37" t="s">
+      <c r="N27" s="38" t="s">
         <v>544</v>
       </c>
-      <c r="O27" s="37" t="s">
+      <c r="O27" s="38" t="s">
         <v>545</v>
       </c>
-      <c r="P27" s="37" t="s">
+      <c r="P27" s="38" t="s">
         <v>546</v>
       </c>
-      <c r="Q27" s="37" t="s">
+      <c r="Q27" s="38" t="s">
         <v>547</v>
       </c>
-      <c r="R27" s="37" t="s">
+      <c r="R27" s="38" t="s">
         <v>550</v>
       </c>
-      <c r="S27" s="37" t="s">
+      <c r="S27" s="38" t="s">
         <v>549</v>
       </c>
-      <c r="T27" s="37" t="s">
+      <c r="T27" s="38" t="s">
         <v>548</v>
       </c>
     </row>
@@ -5790,15 +5977,15 @@
       <c r="K28" s="1">
         <v>23</v>
       </c>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="37"/>
-      <c r="S28" s="37"/>
-      <c r="T28" s="37"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="38"/>
+      <c r="R28" s="38"/>
+      <c r="S28" s="38"/>
+      <c r="T28" s="38"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
@@ -5831,15 +6018,15 @@
       <c r="K29" s="1">
         <v>24</v>
       </c>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="37"/>
-      <c r="S29" s="37"/>
-      <c r="T29" s="37"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="38"/>
+      <c r="T29" s="38"/>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
@@ -5872,31 +6059,31 @@
       <c r="K30" s="1">
         <v>25</v>
       </c>
-      <c r="L30" s="18" t="s">
+      <c r="L30" s="29" t="s">
         <v>335</v>
       </c>
-      <c r="M30" s="18" t="s">
-        <v>366</v>
-      </c>
-      <c r="N30" s="18" t="s">
-        <v>366</v>
-      </c>
-      <c r="O30" s="18" t="s">
-        <v>366</v>
-      </c>
-      <c r="P30" s="18" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q30" s="18" t="s">
+      <c r="M30" s="29" t="s">
+        <v>366</v>
+      </c>
+      <c r="N30" s="29" t="s">
+        <v>366</v>
+      </c>
+      <c r="O30" s="29" t="s">
+        <v>366</v>
+      </c>
+      <c r="P30" s="29" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q30" s="29" t="s">
         <v>575</v>
       </c>
-      <c r="R30" s="18" t="s">
+      <c r="R30" s="29" t="s">
         <v>589</v>
       </c>
-      <c r="S30" s="18" t="s">
+      <c r="S30" s="29" t="s">
         <v>574</v>
       </c>
-      <c r="T30" s="18" t="s">
+      <c r="T30" s="29" t="s">
         <v>573</v>
       </c>
     </row>
@@ -5931,15 +6118,15 @@
       <c r="K31" s="1">
         <v>26</v>
       </c>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="19"/>
-      <c r="T31" s="19"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="30"/>
+      <c r="R31" s="30"/>
+      <c r="S31" s="30"/>
+      <c r="T31" s="30"/>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
@@ -5972,31 +6159,31 @@
       <c r="K32" s="1">
         <v>27</v>
       </c>
-      <c r="L32" s="16" t="s">
+      <c r="L32" s="34" t="s">
         <v>336</v>
       </c>
-      <c r="M32" s="16" t="s">
-        <v>366</v>
-      </c>
-      <c r="N32" s="16" t="s">
-        <v>366</v>
-      </c>
-      <c r="O32" s="16" t="s">
-        <v>366</v>
-      </c>
-      <c r="P32" s="16" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q32" s="16" t="s">
+      <c r="M32" s="34" t="s">
+        <v>366</v>
+      </c>
+      <c r="N32" s="34" t="s">
+        <v>366</v>
+      </c>
+      <c r="O32" s="34" t="s">
+        <v>366</v>
+      </c>
+      <c r="P32" s="34" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q32" s="34" t="s">
         <v>591</v>
       </c>
-      <c r="R32" s="16" t="s">
+      <c r="R32" s="34" t="s">
         <v>590</v>
       </c>
-      <c r="S32" s="16" t="s">
+      <c r="S32" s="34" t="s">
         <v>588</v>
       </c>
-      <c r="T32" s="16" t="s">
+      <c r="T32" s="34" t="s">
         <v>587</v>
       </c>
     </row>
@@ -6031,15 +6218,15 @@
       <c r="K33" s="1">
         <v>28</v>
       </c>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="17"/>
-      <c r="S33" s="17"/>
-      <c r="T33" s="17"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="35"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="35"/>
+      <c r="R33" s="35"/>
+      <c r="S33" s="35"/>
+      <c r="T33" s="35"/>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
@@ -6072,31 +6259,31 @@
       <c r="K34" s="1">
         <v>29</v>
       </c>
-      <c r="L34" s="14" t="s">
+      <c r="L34" s="36" t="s">
         <v>337</v>
       </c>
-      <c r="M34" s="14" t="s">
-        <v>366</v>
-      </c>
-      <c r="N34" s="14" t="s">
-        <v>366</v>
-      </c>
-      <c r="O34" s="14" t="s">
+      <c r="M34" s="36" t="s">
+        <v>366</v>
+      </c>
+      <c r="N34" s="36" t="s">
+        <v>366</v>
+      </c>
+      <c r="O34" s="36" t="s">
         <v>609</v>
       </c>
-      <c r="P34" s="14" t="s">
+      <c r="P34" s="36" t="s">
         <v>608</v>
       </c>
-      <c r="Q34" s="14" t="s">
+      <c r="Q34" s="36" t="s">
         <v>607</v>
       </c>
-      <c r="R34" s="14" t="s">
+      <c r="R34" s="36" t="s">
         <v>606</v>
       </c>
-      <c r="S34" s="14" t="s">
+      <c r="S34" s="36" t="s">
         <v>605</v>
       </c>
-      <c r="T34" s="14" t="s">
+      <c r="T34" s="36" t="s">
         <v>604</v>
       </c>
     </row>
@@ -6131,15 +6318,15 @@
       <c r="K35" s="1">
         <v>30</v>
       </c>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="15"/>
-      <c r="Q35" s="15"/>
-      <c r="R35" s="15"/>
-      <c r="S35" s="15"/>
-      <c r="T35" s="15"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="37"/>
+      <c r="O35" s="37"/>
+      <c r="P35" s="37"/>
+      <c r="Q35" s="37"/>
+      <c r="R35" s="37"/>
+      <c r="S35" s="37"/>
+      <c r="T35" s="37"/>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B36" s="9" t="s">
@@ -6172,31 +6359,31 @@
       <c r="K36" s="1">
         <v>31</v>
       </c>
-      <c r="L36" s="28" t="s">
+      <c r="L36" s="21" t="s">
         <v>338</v>
       </c>
-      <c r="M36" s="28" t="s">
-        <v>366</v>
-      </c>
-      <c r="N36" s="28" t="s">
-        <v>366</v>
-      </c>
-      <c r="O36" s="28" t="s">
+      <c r="M36" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="N36" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="O36" s="21" t="s">
         <v>629</v>
       </c>
-      <c r="P36" s="28" t="s">
+      <c r="P36" s="21" t="s">
         <v>628</v>
       </c>
-      <c r="Q36" s="28" t="s">
+      <c r="Q36" s="21" t="s">
         <v>627</v>
       </c>
-      <c r="R36" s="28" t="s">
+      <c r="R36" s="21" t="s">
         <v>626</v>
       </c>
-      <c r="S36" s="28" t="s">
+      <c r="S36" s="21" t="s">
         <v>625</v>
       </c>
-      <c r="T36" s="28" t="s">
+      <c r="T36" s="21" t="s">
         <v>624</v>
       </c>
     </row>
@@ -6231,127 +6418,215 @@
       <c r="K37" s="1">
         <v>32</v>
       </c>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="29"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="29"/>
-      <c r="Q37" s="29"/>
-      <c r="R37" s="29"/>
-      <c r="S37" s="29"/>
-      <c r="T37" s="29"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="22"/>
+      <c r="T37" s="22"/>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
         <v>610</v>
       </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
+      <c r="C38" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>634</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>633</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>630</v>
+      </c>
       <c r="K38" s="1">
         <v>33</v>
       </c>
-      <c r="L38" s="30" t="s">
+      <c r="L38" s="19" t="s">
         <v>339</v>
       </c>
-      <c r="M38" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="N38" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="O38" s="30"/>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="30"/>
-      <c r="R38" s="30"/>
-      <c r="S38" s="30"/>
-      <c r="T38" s="30"/>
+      <c r="M38" s="19" t="s">
+        <v>649</v>
+      </c>
+      <c r="N38" s="19" t="s">
+        <v>650</v>
+      </c>
+      <c r="O38" s="19" t="s">
+        <v>648</v>
+      </c>
+      <c r="P38" s="19" t="s">
+        <v>647</v>
+      </c>
+      <c r="Q38" s="19" t="s">
+        <v>646</v>
+      </c>
+      <c r="R38" s="19" t="s">
+        <v>645</v>
+      </c>
+      <c r="S38" s="19" t="s">
+        <v>644</v>
+      </c>
+      <c r="T38" s="19" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>611</v>
       </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
+      <c r="C39" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>641</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>640</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>639</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>637</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>635</v>
+      </c>
       <c r="K39" s="1">
         <v>34</v>
       </c>
-      <c r="L39" s="31"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="31"/>
-      <c r="O39" s="31"/>
-      <c r="P39" s="31"/>
-      <c r="Q39" s="31"/>
-      <c r="R39" s="31"/>
-      <c r="S39" s="31"/>
-      <c r="T39" s="31"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="20"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="20"/>
+      <c r="T39" s="20"/>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B40" s="13" t="s">
-        <v>614</v>
-      </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
+        <v>651</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>654</v>
+      </c>
+      <c r="I40" s="13" t="s">
+        <v>653</v>
+      </c>
+      <c r="J40" s="13" t="s">
+        <v>652</v>
+      </c>
       <c r="K40" s="1">
         <v>35</v>
       </c>
-      <c r="L40" s="35" t="s">
+      <c r="L40" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="M40" s="35" t="s">
-        <v>366</v>
-      </c>
-      <c r="N40" s="35" t="s">
-        <v>366</v>
-      </c>
-      <c r="O40" s="35"/>
-      <c r="P40" s="35"/>
-      <c r="Q40" s="35"/>
-      <c r="R40" s="35"/>
-      <c r="S40" s="35"/>
-      <c r="T40" s="35"/>
+      <c r="M40" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="N40" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="O40" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="P40" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q40" s="17" t="s">
+        <v>658</v>
+      </c>
+      <c r="R40" s="17" t="s">
+        <v>657</v>
+      </c>
+      <c r="S40" s="17" t="s">
+        <v>656</v>
+      </c>
+      <c r="T40" s="17" t="s">
+        <v>655</v>
+      </c>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B41" s="13" t="s">
         <v>614</v>
       </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
+      <c r="C41" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>657</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>656</v>
+      </c>
+      <c r="J41" s="13" t="s">
+        <v>655</v>
+      </c>
       <c r="K41" s="1">
         <v>36</v>
       </c>
-      <c r="L41" s="36"/>
-      <c r="M41" s="36"/>
-      <c r="N41" s="36"/>
-      <c r="O41" s="36"/>
-      <c r="P41" s="36"/>
-      <c r="Q41" s="36"/>
-      <c r="R41" s="36"/>
-      <c r="S41" s="36"/>
-      <c r="T41" s="36"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="18"/>
+      <c r="P41" s="18"/>
+      <c r="Q41" s="18"/>
+      <c r="R41" s="18"/>
+      <c r="S41" s="18"/>
+      <c r="T41" s="18"/>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
@@ -6363,151 +6638,191 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
+      <c r="I42" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>660</v>
+      </c>
       <c r="K42" s="1">
         <v>37</v>
       </c>
-      <c r="L42" s="20" t="s">
+      <c r="L42" s="39" t="s">
         <v>341</v>
       </c>
-      <c r="M42" s="20" t="s">
-        <v>366</v>
-      </c>
-      <c r="N42" s="20" t="s">
-        <v>366</v>
-      </c>
-      <c r="O42" s="20"/>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="20"/>
-      <c r="R42" s="20"/>
-      <c r="S42" s="20"/>
-      <c r="T42" s="20"/>
+      <c r="M42" s="39" t="s">
+        <v>366</v>
+      </c>
+      <c r="N42" s="39" t="s">
+        <v>366</v>
+      </c>
+      <c r="O42" s="39" t="s">
+        <v>682</v>
+      </c>
+      <c r="P42" s="39" t="s">
+        <v>681</v>
+      </c>
+      <c r="Q42" s="39" t="s">
+        <v>680</v>
+      </c>
+      <c r="R42" s="39" t="s">
+        <v>679</v>
+      </c>
+      <c r="S42" s="39" t="s">
+        <v>678</v>
+      </c>
+      <c r="T42" s="39" t="s">
+        <v>677</v>
+      </c>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
         <v>613</v>
       </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="38">
+      <c r="C43" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="K43" s="14">
         <v>38</v>
       </c>
-      <c r="L43" s="21"/>
-      <c r="M43" s="21"/>
-      <c r="N43" s="21"/>
-      <c r="O43" s="21"/>
-      <c r="P43" s="21"/>
-      <c r="Q43" s="21"/>
-      <c r="R43" s="21"/>
-      <c r="S43" s="21"/>
-      <c r="T43" s="21"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="39"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="39"/>
+      <c r="Q43" s="39"/>
+      <c r="R43" s="39"/>
+      <c r="S43" s="39"/>
+      <c r="T43" s="39"/>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="L44" s="39"/>
+      <c r="M44" s="39"/>
+      <c r="N44" s="39"/>
+      <c r="O44" s="39"/>
+      <c r="P44" s="39"/>
+      <c r="Q44" s="39"/>
+      <c r="R44" s="39"/>
+      <c r="S44" s="39"/>
+      <c r="T44" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="185">
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="N42:N43"/>
-    <mergeCell ref="O42:O43"/>
-    <mergeCell ref="P42:P43"/>
-    <mergeCell ref="Q42:Q43"/>
-    <mergeCell ref="R42:R43"/>
-    <mergeCell ref="S42:S43"/>
-    <mergeCell ref="T42:T43"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="O40:O41"/>
-    <mergeCell ref="P40:P41"/>
-    <mergeCell ref="Q40:Q41"/>
-    <mergeCell ref="R40:R41"/>
-    <mergeCell ref="S40:S41"/>
-    <mergeCell ref="T40:T41"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="O38:O39"/>
-    <mergeCell ref="P38:P39"/>
-    <mergeCell ref="Q38:Q39"/>
-    <mergeCell ref="R38:R39"/>
-    <mergeCell ref="S38:S39"/>
-    <mergeCell ref="T38:T39"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="O36:O37"/>
-    <mergeCell ref="P36:P37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="R36:R37"/>
-    <mergeCell ref="S36:S37"/>
-    <mergeCell ref="T36:T37"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="R23:R24"/>
-    <mergeCell ref="S23:S24"/>
-    <mergeCell ref="T23:T24"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="R21:R22"/>
-    <mergeCell ref="S21:S22"/>
-    <mergeCell ref="T21:T22"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="AF3:AN3"/>
-    <mergeCell ref="AL5:AL6"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="V3:AD3"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="AL5:AL7"/>
+    <mergeCell ref="AM5:AM7"/>
+    <mergeCell ref="AN5:AN7"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="O34:O35"/>
+    <mergeCell ref="P34:P35"/>
+    <mergeCell ref="Q34:Q35"/>
+    <mergeCell ref="R34:R35"/>
+    <mergeCell ref="S34:S35"/>
+    <mergeCell ref="T34:T35"/>
+    <mergeCell ref="S27:S29"/>
+    <mergeCell ref="R27:R29"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="R32:R33"/>
+    <mergeCell ref="S32:S33"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="AF5:AF7"/>
+    <mergeCell ref="AG5:AG7"/>
+    <mergeCell ref="AH5:AH7"/>
+    <mergeCell ref="AI5:AI7"/>
+    <mergeCell ref="AJ5:AJ7"/>
+    <mergeCell ref="AK5:AK7"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="P30:P31"/>
+    <mergeCell ref="Q30:Q31"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="Q27:Q29"/>
+    <mergeCell ref="P27:P29"/>
+    <mergeCell ref="O27:O29"/>
+    <mergeCell ref="N27:N29"/>
+    <mergeCell ref="M27:M29"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="R30:R31"/>
+    <mergeCell ref="S30:S31"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="T27:T29"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="R15:R16"/>
     <mergeCell ref="R5:R6"/>
     <mergeCell ref="S5:S6"/>
     <mergeCell ref="T5:T6"/>
@@ -6532,70 +6847,100 @@
     <mergeCell ref="R13:R14"/>
     <mergeCell ref="S13:S14"/>
     <mergeCell ref="T13:T14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="O30:O31"/>
-    <mergeCell ref="P30:P31"/>
-    <mergeCell ref="Q30:Q31"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="P25:P26"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="Q27:Q29"/>
-    <mergeCell ref="P27:P29"/>
-    <mergeCell ref="O27:O29"/>
-    <mergeCell ref="N27:N29"/>
-    <mergeCell ref="M27:M29"/>
-    <mergeCell ref="L27:L29"/>
-    <mergeCell ref="R30:R31"/>
-    <mergeCell ref="S30:S31"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="AF5:AF6"/>
-    <mergeCell ref="AG5:AG6"/>
-    <mergeCell ref="AH5:AH6"/>
-    <mergeCell ref="AI5:AI6"/>
-    <mergeCell ref="AJ5:AJ6"/>
-    <mergeCell ref="AK5:AK6"/>
-    <mergeCell ref="R25:R26"/>
-    <mergeCell ref="S25:S26"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="T27:T29"/>
-    <mergeCell ref="S27:S29"/>
-    <mergeCell ref="R27:R29"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="P32:P33"/>
-    <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="R32:R33"/>
-    <mergeCell ref="S32:S33"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="N34:N35"/>
-    <mergeCell ref="O34:O35"/>
-    <mergeCell ref="P34:P35"/>
-    <mergeCell ref="Q34:Q35"/>
-    <mergeCell ref="R34:R35"/>
-    <mergeCell ref="S34:S35"/>
-    <mergeCell ref="T34:T35"/>
+    <mergeCell ref="AF3:AN3"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="V3:AD3"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="S21:S22"/>
+    <mergeCell ref="T21:T22"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="R23:R24"/>
+    <mergeCell ref="S23:S24"/>
+    <mergeCell ref="T23:T24"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="O36:O37"/>
+    <mergeCell ref="P36:P37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="R36:R37"/>
+    <mergeCell ref="S36:S37"/>
+    <mergeCell ref="T36:T37"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="O38:O39"/>
+    <mergeCell ref="P38:P39"/>
+    <mergeCell ref="Q38:Q39"/>
+    <mergeCell ref="R38:R39"/>
+    <mergeCell ref="S38:S39"/>
+    <mergeCell ref="T38:T39"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="O40:O41"/>
+    <mergeCell ref="P40:P41"/>
+    <mergeCell ref="Q40:Q41"/>
+    <mergeCell ref="R40:R41"/>
+    <mergeCell ref="S40:S41"/>
+    <mergeCell ref="T40:T41"/>
+    <mergeCell ref="L42:L44"/>
+    <mergeCell ref="M42:M44"/>
+    <mergeCell ref="N42:N44"/>
+    <mergeCell ref="P42:P44"/>
+    <mergeCell ref="O42:O44"/>
+    <mergeCell ref="Q42:Q44"/>
+    <mergeCell ref="R42:R44"/>
+    <mergeCell ref="S42:S44"/>
+    <mergeCell ref="T42:T44"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FluidE-S/RELACION E-S.xlsx
+++ b/FluidE-S/RELACION E-S.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\GitHub\PLC\FluidE-S\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88EA7681-19FF-4A91-932A-A8954543F67D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E5484F-8F93-47CB-ADED-6ADF3D5B84D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" activeTab="1" xr2:uid="{31BB8279-5BB6-4433-890C-37928397B367}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" xr2:uid="{31BB8279-5BB6-4433-890C-37928397B367}"/>
   </bookViews>
   <sheets>
     <sheet name="Direcciones por ejercicio" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
+    <sheet name="Simbolos" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="699">
   <si>
     <t xml:space="preserve">ejercicios </t>
   </si>
@@ -2005,9 +2005,6 @@
     <t>68B1</t>
   </si>
   <si>
-    <t>E39</t>
-  </si>
-  <si>
     <t>69HONGO</t>
   </si>
   <si>
@@ -2026,18 +2023,9 @@
     <t>69C_UNICO</t>
   </si>
   <si>
-    <t>69MARCHA</t>
-  </si>
-  <si>
-    <t>69PARO</t>
-  </si>
-  <si>
     <t>69DET_PIEZA</t>
   </si>
   <si>
-    <t>69RES</t>
-  </si>
-  <si>
     <t>69A0</t>
   </si>
   <si>
@@ -2053,12 +2041,6 @@
     <t>69C1</t>
   </si>
   <si>
-    <t>69D0</t>
-  </si>
-  <si>
-    <t>69D1</t>
-  </si>
-  <si>
     <t>69Y1</t>
   </si>
   <si>
@@ -2075,6 +2057,72 @@
   </si>
   <si>
     <t>69Y6</t>
+  </si>
+  <si>
+    <t>68Y1</t>
+  </si>
+  <si>
+    <t>68Y2</t>
+  </si>
+  <si>
+    <t>68Y3</t>
+  </si>
+  <si>
+    <t>68Y4</t>
+  </si>
+  <si>
+    <t>Marcas</t>
+  </si>
+  <si>
+    <t>MB0</t>
+  </si>
+  <si>
+    <t>MB1</t>
+  </si>
+  <si>
+    <t>M0.1</t>
+  </si>
+  <si>
+    <t>M0.2</t>
+  </si>
+  <si>
+    <t>M0.3</t>
+  </si>
+  <si>
+    <t>M0.4</t>
+  </si>
+  <si>
+    <t>M0.5</t>
+  </si>
+  <si>
+    <t>M0.6</t>
+  </si>
+  <si>
+    <t>M0.7</t>
+  </si>
+  <si>
+    <t>M0.0</t>
+  </si>
+  <si>
+    <t>M1.0</t>
+  </si>
+  <si>
+    <t>M1.1</t>
+  </si>
+  <si>
+    <t>M1.2</t>
+  </si>
+  <si>
+    <t>M1.3</t>
+  </si>
+  <si>
+    <t>M1.4</t>
+  </si>
+  <si>
+    <t>M1.5</t>
+  </si>
+  <si>
+    <t>M1.6</t>
   </si>
 </sst>
 </file>
@@ -2125,7 +2173,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2199,6 +2247,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2295,7 +2355,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2337,67 +2397,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2409,7 +2418,79 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2737,7 +2818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873BA327-33BA-4188-8DF7-755A048216E2}">
   <dimension ref="B1:D321"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
@@ -4517,10 +4598,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4479E5A1-3D83-48F1-9389-443073603DD9}">
-  <dimension ref="B3:AN44"/>
+  <dimension ref="B3:AD43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AL11" sqref="AL11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W18" sqref="W18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4533,53 +4614,42 @@
     <col min="30" max="30" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B3" s="26" t="s">
+    <row r="3" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B3" s="33" t="s">
         <v>348</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="L3" s="26" t="s">
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="L3" s="33" t="s">
         <v>349</v>
       </c>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="V3" s="26" t="s">
-        <v>348</v>
-      </c>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="26"/>
-      <c r="AF3" s="26" t="s">
-        <v>349</v>
-      </c>
-      <c r="AG3" s="26"/>
-      <c r="AH3" s="26"/>
-      <c r="AI3" s="26"/>
-      <c r="AJ3" s="26"/>
-      <c r="AK3" s="26"/>
-      <c r="AL3" s="26"/>
-      <c r="AM3" s="26"/>
-      <c r="AN3" s="26"/>
-    </row>
-    <row r="4" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="V3" s="33" t="s">
+        <v>681</v>
+      </c>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="33"/>
+    </row>
+    <row r="4" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>350</v>
       </c>
@@ -4661,35 +4731,8 @@
       <c r="AD4" s="2">
         <v>0</v>
       </c>
-      <c r="AF4" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="AG4" s="2">
-        <v>7</v>
-      </c>
-      <c r="AH4" s="2">
-        <v>6</v>
-      </c>
-      <c r="AI4" s="2">
-        <v>5</v>
-      </c>
-      <c r="AJ4" s="2">
-        <v>4</v>
-      </c>
-      <c r="AK4" s="2">
-        <v>3</v>
-      </c>
-      <c r="AL4" s="2">
-        <v>2</v>
-      </c>
-      <c r="AM4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AN4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:40" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
@@ -4717,80 +4760,63 @@
       <c r="J5" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="33" t="s">
+      <c r="K5" s="1"/>
+      <c r="L5" s="30" t="s">
         <v>321</v>
       </c>
-      <c r="M5" s="33" t="s">
-        <v>366</v>
-      </c>
-      <c r="N5" s="33" t="s">
-        <v>366</v>
-      </c>
-      <c r="O5" s="33" t="s">
+      <c r="M5" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="N5" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="O5" s="30" t="s">
         <v>347</v>
       </c>
-      <c r="P5" s="33" t="s">
+      <c r="P5" s="30" t="s">
         <v>346</v>
       </c>
-      <c r="Q5" s="33" t="s">
+      <c r="Q5" s="30" t="s">
         <v>345</v>
       </c>
-      <c r="R5" s="33" t="s">
+      <c r="R5" s="30" t="s">
         <v>344</v>
       </c>
-      <c r="S5" s="33" t="s">
+      <c r="S5" s="30" t="s">
         <v>343</v>
       </c>
-      <c r="T5" s="33" t="s">
+      <c r="T5" s="30" t="s">
         <v>342</v>
       </c>
-      <c r="V5" s="4" t="s">
-        <v>612</v>
-      </c>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="4" t="s">
-        <v>669</v>
-      </c>
-      <c r="AD5" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="AF5" s="39" t="s">
-        <v>341</v>
-      </c>
-      <c r="AG5" s="39" t="s">
-        <v>366</v>
-      </c>
-      <c r="AH5" s="39" t="s">
-        <v>366</v>
-      </c>
-      <c r="AI5" s="39" t="s">
+      <c r="V5" s="39" t="s">
         <v>682</v>
       </c>
-      <c r="AJ5" s="39" t="s">
-        <v>681</v>
-      </c>
-      <c r="AK5" s="39" t="s">
-        <v>680</v>
-      </c>
-      <c r="AL5" s="39" t="s">
-        <v>679</v>
-      </c>
-      <c r="AM5" s="39" t="s">
-        <v>678</v>
-      </c>
-      <c r="AN5" s="39" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="6" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="W5" s="46" t="s">
+        <v>690</v>
+      </c>
+      <c r="X5" s="45" t="s">
+        <v>689</v>
+      </c>
+      <c r="Y5" s="44" t="s">
+        <v>688</v>
+      </c>
+      <c r="Z5" s="43" t="s">
+        <v>687</v>
+      </c>
+      <c r="AA5" s="42" t="s">
+        <v>686</v>
+      </c>
+      <c r="AB5" s="41" t="s">
+        <v>685</v>
+      </c>
+      <c r="AC5" s="40" t="s">
+        <v>684</v>
+      </c>
+      <c r="AD5" s="30" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="6" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
@@ -4818,56 +4844,27 @@
       <c r="J6" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="K6" s="1">
-        <v>1</v>
-      </c>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="33"/>
-      <c r="V6" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>661</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>668</v>
-      </c>
-      <c r="Y6" s="4" t="s">
-        <v>667</v>
-      </c>
-      <c r="Z6" s="4" t="s">
-        <v>666</v>
-      </c>
-      <c r="AA6" s="4" t="s">
-        <v>665</v>
-      </c>
-      <c r="AB6" s="4" t="s">
-        <v>664</v>
-      </c>
-      <c r="AC6" s="4" t="s">
-        <v>663</v>
-      </c>
-      <c r="AD6" s="4" t="s">
-        <v>662</v>
-      </c>
-      <c r="AF6" s="39"/>
-      <c r="AG6" s="39"/>
-      <c r="AH6" s="39"/>
-      <c r="AI6" s="39"/>
-      <c r="AJ6" s="39"/>
-      <c r="AK6" s="39"/>
-      <c r="AL6" s="39"/>
-      <c r="AM6" s="39"/>
-      <c r="AN6" s="39"/>
-    </row>
-    <row r="7" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="K6" s="1"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="V6" s="39"/>
+      <c r="W6" s="46"/>
+      <c r="X6" s="45"/>
+      <c r="Y6" s="44"/>
+      <c r="Z6" s="43"/>
+      <c r="AA6" s="42"/>
+      <c r="AB6" s="41"/>
+      <c r="AC6" s="40"/>
+      <c r="AD6" s="30"/>
+    </row>
+    <row r="7" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
@@ -4895,9 +4892,7 @@
       <c r="J7" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="K7" s="1">
-        <v>2</v>
-      </c>
+      <c r="K7" s="1"/>
       <c r="L7" s="31" t="s">
         <v>324</v>
       </c>
@@ -4925,44 +4920,35 @@
       <c r="T7" s="31" t="s">
         <v>378</v>
       </c>
-      <c r="V7" s="4" t="s">
-        <v>659</v>
-      </c>
-      <c r="W7" s="4" t="s">
-        <v>676</v>
-      </c>
-      <c r="X7" s="4" t="s">
-        <v>675</v>
-      </c>
-      <c r="Y7" s="4" t="s">
-        <v>674</v>
-      </c>
-      <c r="Z7" s="4" t="s">
-        <v>673</v>
-      </c>
-      <c r="AA7" s="4" t="s">
-        <v>672</v>
-      </c>
-      <c r="AB7" s="4" t="s">
-        <v>657</v>
-      </c>
-      <c r="AC7" s="4" t="s">
-        <v>671</v>
-      </c>
-      <c r="AD7" s="4" t="s">
-        <v>670</v>
-      </c>
-      <c r="AF7" s="39"/>
-      <c r="AG7" s="39"/>
-      <c r="AH7" s="39"/>
-      <c r="AI7" s="39"/>
-      <c r="AJ7" s="39"/>
-      <c r="AK7" s="39"/>
-      <c r="AL7" s="39"/>
-      <c r="AM7" s="39"/>
-      <c r="AN7" s="39"/>
-    </row>
-    <row r="8" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="V7" s="39" t="s">
+        <v>683</v>
+      </c>
+      <c r="W7" s="39" t="s">
+        <v>366</v>
+      </c>
+      <c r="X7" s="30" t="s">
+        <v>698</v>
+      </c>
+      <c r="Y7" s="46" t="s">
+        <v>697</v>
+      </c>
+      <c r="Z7" s="45" t="s">
+        <v>696</v>
+      </c>
+      <c r="AA7" s="43" t="s">
+        <v>695</v>
+      </c>
+      <c r="AB7" s="42" t="s">
+        <v>694</v>
+      </c>
+      <c r="AC7" s="41" t="s">
+        <v>693</v>
+      </c>
+      <c r="AD7" s="40" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="8" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
@@ -4990,9 +4976,7 @@
       <c r="J8" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="K8" s="1">
-        <v>3</v>
-      </c>
+      <c r="K8" s="1"/>
       <c r="L8" s="32"/>
       <c r="M8" s="32"/>
       <c r="N8" s="32"/>
@@ -5002,8 +4986,17 @@
       <c r="R8" s="32"/>
       <c r="S8" s="32"/>
       <c r="T8" s="32"/>
-    </row>
-    <row r="9" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="V8" s="39"/>
+      <c r="W8" s="39"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="46"/>
+      <c r="Z8" s="45"/>
+      <c r="AA8" s="43"/>
+      <c r="AB8" s="42"/>
+      <c r="AC8" s="41"/>
+      <c r="AD8" s="40"/>
+    </row>
+    <row r="9" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
@@ -5031,38 +5024,36 @@
       <c r="J9" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="K9" s="1">
-        <v>4</v>
-      </c>
-      <c r="L9" s="27" t="s">
+      <c r="K9" s="1"/>
+      <c r="L9" s="24" t="s">
         <v>325</v>
       </c>
-      <c r="M9" s="27" t="s">
-        <v>366</v>
-      </c>
-      <c r="N9" s="27" t="s">
-        <v>366</v>
-      </c>
-      <c r="O9" s="27" t="s">
+      <c r="M9" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="N9" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="O9" s="24" t="s">
         <v>393</v>
       </c>
-      <c r="P9" s="27" t="s">
+      <c r="P9" s="24" t="s">
         <v>392</v>
       </c>
-      <c r="Q9" s="27" t="s">
+      <c r="Q9" s="24" t="s">
         <v>391</v>
       </c>
-      <c r="R9" s="27" t="s">
+      <c r="R9" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="S9" s="27" t="s">
+      <c r="S9" s="24" t="s">
         <v>389</v>
       </c>
-      <c r="T9" s="27" t="s">
+      <c r="T9" s="24" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="10" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
@@ -5090,20 +5081,18 @@
       <c r="J10" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="K10" s="1">
-        <v>5</v>
-      </c>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="28"/>
-    </row>
-    <row r="11" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="K10" s="1"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+    </row>
+    <row r="11" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
@@ -5131,38 +5120,36 @@
       <c r="J11" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="K11" s="1">
-        <v>6</v>
-      </c>
-      <c r="L11" s="29" t="s">
+      <c r="K11" s="1"/>
+      <c r="L11" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="M11" s="29" t="s">
+      <c r="M11" s="22" t="s">
         <v>414</v>
       </c>
-      <c r="N11" s="29" t="s">
+      <c r="N11" s="22" t="s">
         <v>413</v>
       </c>
-      <c r="O11" s="29" t="s">
+      <c r="O11" s="22" t="s">
         <v>412</v>
       </c>
-      <c r="P11" s="29" t="s">
+      <c r="P11" s="22" t="s">
         <v>411</v>
       </c>
-      <c r="Q11" s="29" t="s">
+      <c r="Q11" s="22" t="s">
         <v>410</v>
       </c>
-      <c r="R11" s="29" t="s">
+      <c r="R11" s="22" t="s">
         <v>409</v>
       </c>
-      <c r="S11" s="29" t="s">
+      <c r="S11" s="22" t="s">
         <v>408</v>
       </c>
-      <c r="T11" s="29" t="s">
+      <c r="T11" s="22" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="12" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>10</v>
       </c>
@@ -5190,20 +5177,18 @@
       <c r="J12" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="K12" s="1">
-        <v>7</v>
-      </c>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
-    </row>
-    <row r="13" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="K12" s="1"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+    </row>
+    <row r="13" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>11</v>
       </c>
@@ -5231,38 +5216,36 @@
       <c r="J13" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="K13" s="1">
-        <v>8</v>
-      </c>
-      <c r="L13" s="34" t="s">
+      <c r="K13" s="1"/>
+      <c r="L13" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="M13" s="34" t="s">
-        <v>366</v>
-      </c>
-      <c r="N13" s="34" t="s">
-        <v>366</v>
-      </c>
-      <c r="O13" s="34" t="s">
+      <c r="M13" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="N13" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="O13" s="15" t="s">
         <v>429</v>
       </c>
-      <c r="P13" s="34" t="s">
+      <c r="P13" s="15" t="s">
         <v>428</v>
       </c>
-      <c r="Q13" s="34" t="s">
+      <c r="Q13" s="15" t="s">
         <v>427</v>
       </c>
-      <c r="R13" s="34" t="s">
+      <c r="R13" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="S13" s="34" t="s">
+      <c r="S13" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="T13" s="34" t="s">
+      <c r="T13" s="15" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="14" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>12</v>
       </c>
@@ -5290,20 +5273,18 @@
       <c r="J14" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="K14" s="1">
-        <v>9</v>
-      </c>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="35"/>
-      <c r="T14" s="35"/>
-    </row>
-    <row r="15" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="K14" s="1"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+    </row>
+    <row r="15" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
         <v>13</v>
       </c>
@@ -5329,38 +5310,36 @@
       <c r="J15" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="K15" s="1">
-        <v>10</v>
-      </c>
-      <c r="L15" s="36" t="s">
+      <c r="K15" s="1"/>
+      <c r="L15" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="M15" s="36" t="s">
+      <c r="M15" s="19" t="s">
         <v>450</v>
       </c>
-      <c r="N15" s="36" t="s">
+      <c r="N15" s="19" t="s">
         <v>449</v>
       </c>
-      <c r="O15" s="36" t="s">
+      <c r="O15" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="P15" s="36" t="s">
+      <c r="P15" s="19" t="s">
         <v>447</v>
       </c>
-      <c r="Q15" s="36" t="s">
+      <c r="Q15" s="19" t="s">
         <v>446</v>
       </c>
-      <c r="R15" s="36" t="s">
+      <c r="R15" s="19" t="s">
         <v>445</v>
       </c>
-      <c r="S15" s="36" t="s">
+      <c r="S15" s="19" t="s">
         <v>444</v>
       </c>
-      <c r="T15" s="36" t="s">
+      <c r="T15" s="19" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="16" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>14</v>
       </c>
@@ -5388,18 +5367,16 @@
       <c r="J16" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="K16" s="1">
-        <v>11</v>
-      </c>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="37"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
@@ -5429,34 +5406,32 @@
       <c r="J17" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="K17" s="1">
-        <v>12</v>
-      </c>
-      <c r="L17" s="21" t="s">
+      <c r="K17" s="1"/>
+      <c r="L17" s="26" t="s">
         <v>329</v>
       </c>
-      <c r="M17" s="21" t="s">
-        <v>366</v>
-      </c>
-      <c r="N17" s="21" t="s">
-        <v>366</v>
-      </c>
-      <c r="O17" s="21" t="s">
+      <c r="M17" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="N17" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="O17" s="26" t="s">
         <v>469</v>
       </c>
-      <c r="P17" s="21" t="s">
+      <c r="P17" s="26" t="s">
         <v>456</v>
       </c>
-      <c r="Q17" s="21" t="s">
+      <c r="Q17" s="26" t="s">
         <v>455</v>
       </c>
-      <c r="R17" s="21" t="s">
+      <c r="R17" s="26" t="s">
         <v>454</v>
       </c>
-      <c r="S17" s="21" t="s">
+      <c r="S17" s="26" t="s">
         <v>453</v>
       </c>
-      <c r="T17" s="21" t="s">
+      <c r="T17" s="26" t="s">
         <v>451</v>
       </c>
     </row>
@@ -5488,18 +5463,16 @@
       <c r="J18" s="9" t="s">
         <v>463</v>
       </c>
-      <c r="K18" s="1">
-        <v>13</v>
-      </c>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
@@ -5529,34 +5502,32 @@
       <c r="J19" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="K19" s="1">
-        <v>14</v>
-      </c>
-      <c r="L19" s="19" t="s">
+      <c r="K19" s="1"/>
+      <c r="L19" s="28" t="s">
         <v>330</v>
       </c>
-      <c r="M19" s="19" t="s">
+      <c r="M19" s="28" t="s">
         <v>492</v>
       </c>
-      <c r="N19" s="19" t="s">
+      <c r="N19" s="28" t="s">
         <v>491</v>
       </c>
-      <c r="O19" s="19" t="s">
+      <c r="O19" s="28" t="s">
         <v>490</v>
       </c>
-      <c r="P19" s="19" t="s">
+      <c r="P19" s="28" t="s">
         <v>489</v>
       </c>
-      <c r="Q19" s="19" t="s">
+      <c r="Q19" s="28" t="s">
         <v>488</v>
       </c>
-      <c r="R19" s="19" t="s">
+      <c r="R19" s="28" t="s">
         <v>487</v>
       </c>
-      <c r="S19" s="19" t="s">
+      <c r="S19" s="28" t="s">
         <v>452</v>
       </c>
-      <c r="T19" s="19" t="s">
+      <c r="T19" s="28" t="s">
         <v>486</v>
       </c>
     </row>
@@ -5588,61 +5559,57 @@
       <c r="J20" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="K20" s="1">
-        <v>15</v>
-      </c>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="20"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
         <v>497</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="34" t="s">
         <v>498</v>
       </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="1">
-        <v>16</v>
-      </c>
-      <c r="L21" s="19" t="s">
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="28" t="s">
         <v>331</v>
       </c>
-      <c r="M21" s="19" t="s">
-        <v>366</v>
-      </c>
-      <c r="N21" s="19" t="s">
-        <v>366</v>
-      </c>
-      <c r="O21" s="19" t="s">
-        <v>366</v>
-      </c>
-      <c r="P21" s="19" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q21" s="19" t="s">
+      <c r="M21" s="28" t="s">
+        <v>366</v>
+      </c>
+      <c r="N21" s="28" t="s">
+        <v>366</v>
+      </c>
+      <c r="O21" s="28" t="s">
+        <v>366</v>
+      </c>
+      <c r="P21" s="28" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q21" s="28" t="s">
         <v>496</v>
       </c>
-      <c r="R21" s="19" t="s">
+      <c r="R21" s="28" t="s">
         <v>494</v>
       </c>
-      <c r="S21" s="19" t="s">
+      <c r="S21" s="28" t="s">
         <v>495</v>
       </c>
-      <c r="T21" s="19" t="s">
+      <c r="T21" s="28" t="s">
         <v>493</v>
       </c>
     </row>
@@ -5674,18 +5641,16 @@
       <c r="J22" s="10" t="s">
         <v>484</v>
       </c>
-      <c r="K22" s="1">
-        <v>17</v>
-      </c>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="11" t="s">
@@ -5715,34 +5680,32 @@
       <c r="J23" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="K23" s="1">
-        <v>18</v>
-      </c>
-      <c r="L23" s="17" t="s">
+      <c r="K23" s="1"/>
+      <c r="L23" s="37" t="s">
         <v>332</v>
       </c>
-      <c r="M23" s="17" t="s">
+      <c r="M23" s="37" t="s">
         <v>520</v>
       </c>
-      <c r="N23" s="17" t="s">
+      <c r="N23" s="37" t="s">
         <v>519</v>
       </c>
-      <c r="O23" s="17" t="s">
+      <c r="O23" s="37" t="s">
         <v>518</v>
       </c>
-      <c r="P23" s="17" t="s">
+      <c r="P23" s="37" t="s">
         <v>517</v>
       </c>
-      <c r="Q23" s="17" t="s">
+      <c r="Q23" s="37" t="s">
         <v>516</v>
       </c>
-      <c r="R23" s="17" t="s">
+      <c r="R23" s="37" t="s">
         <v>515</v>
       </c>
-      <c r="S23" s="17" t="s">
+      <c r="S23" s="37" t="s">
         <v>514</v>
       </c>
-      <c r="T23" s="17" t="s">
+      <c r="T23" s="37" t="s">
         <v>513</v>
       </c>
     </row>
@@ -5774,18 +5737,16 @@
       <c r="J24" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="K24" s="1">
-        <v>19</v>
-      </c>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="18"/>
-      <c r="S24" s="18"/>
-      <c r="T24" s="18"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="38"/>
+      <c r="T24" s="38"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
@@ -5815,34 +5776,32 @@
       <c r="J25" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="K25" s="1">
-        <v>20</v>
-      </c>
-      <c r="L25" s="15" t="s">
+      <c r="K25" s="1"/>
+      <c r="L25" s="17" t="s">
         <v>333</v>
       </c>
-      <c r="M25" s="15" t="s">
+      <c r="M25" s="17" t="s">
         <v>542</v>
       </c>
-      <c r="N25" s="15" t="s">
+      <c r="N25" s="17" t="s">
         <v>541</v>
       </c>
-      <c r="O25" s="15" t="s">
+      <c r="O25" s="17" t="s">
         <v>540</v>
       </c>
-      <c r="P25" s="15" t="s">
+      <c r="P25" s="17" t="s">
         <v>539</v>
       </c>
-      <c r="Q25" s="15" t="s">
+      <c r="Q25" s="17" t="s">
         <v>538</v>
       </c>
-      <c r="R25" s="15" t="s">
+      <c r="R25" s="17" t="s">
         <v>537</v>
       </c>
-      <c r="S25" s="15" t="s">
+      <c r="S25" s="17" t="s">
         <v>536</v>
       </c>
-      <c r="T25" s="15" t="s">
+      <c r="T25" s="17" t="s">
         <v>535</v>
       </c>
     </row>
@@ -5874,18 +5833,16 @@
       <c r="J26" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="K26" s="1">
-        <v>21</v>
-      </c>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="16"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="18"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
@@ -5915,34 +5872,32 @@
       <c r="J27" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="K27" s="1">
-        <v>22</v>
-      </c>
-      <c r="L27" s="38" t="s">
+      <c r="K27" s="1"/>
+      <c r="L27" s="21" t="s">
         <v>334</v>
       </c>
-      <c r="M27" s="38" t="s">
+      <c r="M27" s="21" t="s">
         <v>543</v>
       </c>
-      <c r="N27" s="38" t="s">
+      <c r="N27" s="21" t="s">
         <v>544</v>
       </c>
-      <c r="O27" s="38" t="s">
+      <c r="O27" s="21" t="s">
         <v>545</v>
       </c>
-      <c r="P27" s="38" t="s">
+      <c r="P27" s="21" t="s">
         <v>546</v>
       </c>
-      <c r="Q27" s="38" t="s">
+      <c r="Q27" s="21" t="s">
         <v>547</v>
       </c>
-      <c r="R27" s="38" t="s">
+      <c r="R27" s="21" t="s">
         <v>550</v>
       </c>
-      <c r="S27" s="38" t="s">
+      <c r="S27" s="21" t="s">
         <v>549</v>
       </c>
-      <c r="T27" s="38" t="s">
+      <c r="T27" s="21" t="s">
         <v>548</v>
       </c>
     </row>
@@ -5974,18 +5929,16 @@
       <c r="J28" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="K28" s="1">
-        <v>23</v>
-      </c>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
-      <c r="O28" s="38"/>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="38"/>
-      <c r="R28" s="38"/>
-      <c r="S28" s="38"/>
-      <c r="T28" s="38"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="21"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
@@ -6015,18 +5968,16 @@
       <c r="J29" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="K29" s="1">
-        <v>24</v>
-      </c>
-      <c r="L29" s="38"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
-      <c r="O29" s="38"/>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="38"/>
-      <c r="R29" s="38"/>
-      <c r="S29" s="38"/>
-      <c r="T29" s="38"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
@@ -6056,34 +6007,32 @@
       <c r="J30" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="K30" s="1">
-        <v>25</v>
-      </c>
-      <c r="L30" s="29" t="s">
+      <c r="K30" s="1"/>
+      <c r="L30" s="22" t="s">
         <v>335</v>
       </c>
-      <c r="M30" s="29" t="s">
-        <v>366</v>
-      </c>
-      <c r="N30" s="29" t="s">
-        <v>366</v>
-      </c>
-      <c r="O30" s="29" t="s">
-        <v>366</v>
-      </c>
-      <c r="P30" s="29" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q30" s="29" t="s">
+      <c r="M30" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="N30" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="O30" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="P30" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q30" s="22" t="s">
         <v>575</v>
       </c>
-      <c r="R30" s="29" t="s">
+      <c r="R30" s="22" t="s">
         <v>589</v>
       </c>
-      <c r="S30" s="29" t="s">
+      <c r="S30" s="22" t="s">
         <v>574</v>
       </c>
-      <c r="T30" s="29" t="s">
+      <c r="T30" s="22" t="s">
         <v>573</v>
       </c>
     </row>
@@ -6115,18 +6064,16 @@
       <c r="J31" s="7" t="s">
         <v>569</v>
       </c>
-      <c r="K31" s="1">
-        <v>26</v>
-      </c>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="30"/>
-      <c r="R31" s="30"/>
-      <c r="S31" s="30"/>
-      <c r="T31" s="30"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
@@ -6156,34 +6103,32 @@
       <c r="J32" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="K32" s="1">
-        <v>27</v>
-      </c>
-      <c r="L32" s="34" t="s">
+      <c r="K32" s="1"/>
+      <c r="L32" s="15" t="s">
         <v>336</v>
       </c>
-      <c r="M32" s="34" t="s">
-        <v>366</v>
-      </c>
-      <c r="N32" s="34" t="s">
-        <v>366</v>
-      </c>
-      <c r="O32" s="34" t="s">
-        <v>366</v>
-      </c>
-      <c r="P32" s="34" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q32" s="34" t="s">
+      <c r="M32" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="N32" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="O32" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="P32" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q32" s="15" t="s">
         <v>591</v>
       </c>
-      <c r="R32" s="34" t="s">
+      <c r="R32" s="15" t="s">
         <v>590</v>
       </c>
-      <c r="S32" s="34" t="s">
+      <c r="S32" s="15" t="s">
         <v>588</v>
       </c>
-      <c r="T32" s="34" t="s">
+      <c r="T32" s="15" t="s">
         <v>587</v>
       </c>
     </row>
@@ -6215,18 +6160,16 @@
       <c r="J33" s="5" t="s">
         <v>583</v>
       </c>
-      <c r="K33" s="1">
-        <v>28</v>
-      </c>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="35"/>
-      <c r="P33" s="35"/>
-      <c r="Q33" s="35"/>
-      <c r="R33" s="35"/>
-      <c r="S33" s="35"/>
-      <c r="T33" s="35"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
@@ -6256,34 +6199,32 @@
       <c r="J34" s="8" t="s">
         <v>592</v>
       </c>
-      <c r="K34" s="1">
-        <v>29</v>
-      </c>
-      <c r="L34" s="36" t="s">
+      <c r="K34" s="1"/>
+      <c r="L34" s="19" t="s">
         <v>337</v>
       </c>
-      <c r="M34" s="36" t="s">
-        <v>366</v>
-      </c>
-      <c r="N34" s="36" t="s">
-        <v>366</v>
-      </c>
-      <c r="O34" s="36" t="s">
+      <c r="M34" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="N34" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="O34" s="19" t="s">
         <v>609</v>
       </c>
-      <c r="P34" s="36" t="s">
+      <c r="P34" s="19" t="s">
         <v>608</v>
       </c>
-      <c r="Q34" s="36" t="s">
+      <c r="Q34" s="19" t="s">
         <v>607</v>
       </c>
-      <c r="R34" s="36" t="s">
+      <c r="R34" s="19" t="s">
         <v>606</v>
       </c>
-      <c r="S34" s="36" t="s">
+      <c r="S34" s="19" t="s">
         <v>605</v>
       </c>
-      <c r="T34" s="36" t="s">
+      <c r="T34" s="19" t="s">
         <v>604</v>
       </c>
     </row>
@@ -6315,18 +6256,16 @@
       <c r="J35" s="8" t="s">
         <v>598</v>
       </c>
-      <c r="K35" s="1">
-        <v>30</v>
-      </c>
-      <c r="L35" s="37"/>
-      <c r="M35" s="37"/>
-      <c r="N35" s="37"/>
-      <c r="O35" s="37"/>
-      <c r="P35" s="37"/>
-      <c r="Q35" s="37"/>
-      <c r="R35" s="37"/>
-      <c r="S35" s="37"/>
-      <c r="T35" s="37"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="20"/>
+      <c r="Q35" s="20"/>
+      <c r="R35" s="20"/>
+      <c r="S35" s="20"/>
+      <c r="T35" s="20"/>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B36" s="9" t="s">
@@ -6356,34 +6295,32 @@
       <c r="J36" s="9" t="s">
         <v>615</v>
       </c>
-      <c r="K36" s="1">
-        <v>31</v>
-      </c>
-      <c r="L36" s="21" t="s">
+      <c r="K36" s="1"/>
+      <c r="L36" s="26" t="s">
         <v>338</v>
       </c>
-      <c r="M36" s="21" t="s">
-        <v>366</v>
-      </c>
-      <c r="N36" s="21" t="s">
-        <v>366</v>
-      </c>
-      <c r="O36" s="21" t="s">
+      <c r="M36" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="N36" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="O36" s="26" t="s">
         <v>629</v>
       </c>
-      <c r="P36" s="21" t="s">
+      <c r="P36" s="26" t="s">
         <v>628</v>
       </c>
-      <c r="Q36" s="21" t="s">
+      <c r="Q36" s="26" t="s">
         <v>627</v>
       </c>
-      <c r="R36" s="21" t="s">
+      <c r="R36" s="26" t="s">
         <v>626</v>
       </c>
-      <c r="S36" s="21" t="s">
+      <c r="S36" s="26" t="s">
         <v>625</v>
       </c>
-      <c r="T36" s="21" t="s">
+      <c r="T36" s="26" t="s">
         <v>624</v>
       </c>
     </row>
@@ -6415,18 +6352,16 @@
       <c r="J37" s="9" t="s">
         <v>618</v>
       </c>
-      <c r="K37" s="1">
-        <v>32</v>
-      </c>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="22"/>
-      <c r="S37" s="22"/>
-      <c r="T37" s="22"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="27"/>
+      <c r="P37" s="27"/>
+      <c r="Q37" s="27"/>
+      <c r="R37" s="27"/>
+      <c r="S37" s="27"/>
+      <c r="T37" s="27"/>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
@@ -6456,34 +6391,32 @@
       <c r="J38" s="10" t="s">
         <v>630</v>
       </c>
-      <c r="K38" s="1">
-        <v>33</v>
-      </c>
-      <c r="L38" s="19" t="s">
+      <c r="K38" s="1"/>
+      <c r="L38" s="28" t="s">
         <v>339</v>
       </c>
-      <c r="M38" s="19" t="s">
+      <c r="M38" s="28" t="s">
         <v>649</v>
       </c>
-      <c r="N38" s="19" t="s">
+      <c r="N38" s="28" t="s">
         <v>650</v>
       </c>
-      <c r="O38" s="19" t="s">
+      <c r="O38" s="28" t="s">
         <v>648</v>
       </c>
-      <c r="P38" s="19" t="s">
+      <c r="P38" s="28" t="s">
         <v>647</v>
       </c>
-      <c r="Q38" s="19" t="s">
+      <c r="Q38" s="28" t="s">
         <v>646</v>
       </c>
-      <c r="R38" s="19" t="s">
+      <c r="R38" s="28" t="s">
         <v>645</v>
       </c>
-      <c r="S38" s="19" t="s">
+      <c r="S38" s="28" t="s">
         <v>644</v>
       </c>
-      <c r="T38" s="19" t="s">
+      <c r="T38" s="28" t="s">
         <v>643</v>
       </c>
     </row>
@@ -6515,18 +6448,16 @@
       <c r="J39" s="10" t="s">
         <v>635</v>
       </c>
-      <c r="K39" s="1">
-        <v>34</v>
-      </c>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="20"/>
-      <c r="O39" s="20"/>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="20"/>
-      <c r="R39" s="20"/>
-      <c r="S39" s="20"/>
-      <c r="T39" s="20"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="29"/>
+      <c r="R39" s="29"/>
+      <c r="S39" s="29"/>
+      <c r="T39" s="29"/>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B40" s="13" t="s">
@@ -6556,35 +6487,33 @@
       <c r="J40" s="13" t="s">
         <v>652</v>
       </c>
-      <c r="K40" s="1">
-        <v>35</v>
-      </c>
-      <c r="L40" s="17" t="s">
+      <c r="K40" s="1"/>
+      <c r="L40" s="37" t="s">
         <v>340</v>
       </c>
-      <c r="M40" s="17" t="s">
-        <v>366</v>
-      </c>
-      <c r="N40" s="17" t="s">
-        <v>366</v>
-      </c>
-      <c r="O40" s="17" t="s">
-        <v>366</v>
-      </c>
-      <c r="P40" s="17" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q40" s="17" t="s">
-        <v>658</v>
-      </c>
-      <c r="R40" s="17" t="s">
-        <v>657</v>
-      </c>
-      <c r="S40" s="17" t="s">
-        <v>656</v>
-      </c>
-      <c r="T40" s="17" t="s">
-        <v>655</v>
+      <c r="M40" s="37" t="s">
+        <v>366</v>
+      </c>
+      <c r="N40" s="37" t="s">
+        <v>366</v>
+      </c>
+      <c r="O40" s="37" t="s">
+        <v>366</v>
+      </c>
+      <c r="P40" s="37" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q40" s="37" t="s">
+        <v>680</v>
+      </c>
+      <c r="R40" s="37" t="s">
+        <v>679</v>
+      </c>
+      <c r="S40" s="37" t="s">
+        <v>678</v>
+      </c>
+      <c r="T40" s="37" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.25">
@@ -6615,64 +6544,72 @@
       <c r="J41" s="13" t="s">
         <v>655</v>
       </c>
-      <c r="K41" s="1">
-        <v>36</v>
-      </c>
-      <c r="L41" s="18"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="18"/>
-      <c r="O41" s="18"/>
-      <c r="P41" s="18"/>
-      <c r="Q41" s="18"/>
-      <c r="R41" s="18"/>
-      <c r="S41" s="18"/>
-      <c r="T41" s="18"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="38"/>
+      <c r="N41" s="38"/>
+      <c r="O41" s="38"/>
+      <c r="P41" s="38"/>
+      <c r="Q41" s="38"/>
+      <c r="R41" s="38"/>
+      <c r="S41" s="38"/>
+      <c r="T41" s="38"/>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
+      <c r="C42" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>662</v>
+      </c>
       <c r="I42" s="4" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="K42" s="1">
-        <v>37</v>
-      </c>
-      <c r="L42" s="39" t="s">
+        <v>659</v>
+      </c>
+      <c r="K42" s="1"/>
+      <c r="L42" s="31" t="s">
         <v>341</v>
       </c>
-      <c r="M42" s="39" t="s">
-        <v>366</v>
-      </c>
-      <c r="N42" s="39" t="s">
-        <v>366</v>
-      </c>
-      <c r="O42" s="39" t="s">
-        <v>682</v>
-      </c>
-      <c r="P42" s="39" t="s">
-        <v>681</v>
-      </c>
-      <c r="Q42" s="39" t="s">
-        <v>680</v>
-      </c>
-      <c r="R42" s="39" t="s">
-        <v>679</v>
-      </c>
-      <c r="S42" s="39" t="s">
-        <v>678</v>
-      </c>
-      <c r="T42" s="39" t="s">
-        <v>677</v>
+      <c r="M42" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="N42" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="O42" s="31" t="s">
+        <v>676</v>
+      </c>
+      <c r="P42" s="31" t="s">
+        <v>675</v>
+      </c>
+      <c r="Q42" s="31" t="s">
+        <v>674</v>
+      </c>
+      <c r="R42" s="31" t="s">
+        <v>673</v>
+      </c>
+      <c r="S42" s="31" t="s">
+        <v>672</v>
+      </c>
+      <c r="T42" s="31" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.25">
@@ -6680,122 +6617,180 @@
         <v>613</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>661</v>
+        <v>366</v>
       </c>
       <c r="D43" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="G43" s="4" t="s">
         <v>668</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="H43" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="I43" s="4" t="s">
         <v>667</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="J43" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="G43" s="4" t="s">
-        <v>665</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>664</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>663</v>
-      </c>
-      <c r="J43" s="4" t="s">
-        <v>662</v>
-      </c>
-      <c r="K43" s="14">
-        <v>38</v>
-      </c>
-      <c r="L43" s="39"/>
-      <c r="M43" s="39"/>
-      <c r="N43" s="39"/>
-      <c r="O43" s="39"/>
-      <c r="P43" s="39"/>
-      <c r="Q43" s="39"/>
-      <c r="R43" s="39"/>
-      <c r="S43" s="39"/>
-      <c r="T43" s="39"/>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B44" s="4" t="s">
-        <v>659</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>676</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>675</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>674</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>673</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>672</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>657</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>671</v>
-      </c>
-      <c r="J44" s="4" t="s">
-        <v>670</v>
-      </c>
-      <c r="L44" s="39"/>
-      <c r="M44" s="39"/>
-      <c r="N44" s="39"/>
-      <c r="O44" s="39"/>
-      <c r="P44" s="39"/>
-      <c r="Q44" s="39"/>
-      <c r="R44" s="39"/>
-      <c r="S44" s="39"/>
-      <c r="T44" s="39"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="32"/>
+      <c r="M43" s="32"/>
+      <c r="N43" s="32"/>
+      <c r="O43" s="32"/>
+      <c r="P43" s="32"/>
+      <c r="Q43" s="32"/>
+      <c r="R43" s="32"/>
+      <c r="S43" s="32"/>
+      <c r="T43" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="185">
-    <mergeCell ref="AL5:AL7"/>
-    <mergeCell ref="AM5:AM7"/>
-    <mergeCell ref="AN5:AN7"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="N34:N35"/>
-    <mergeCell ref="O34:O35"/>
-    <mergeCell ref="P34:P35"/>
-    <mergeCell ref="Q34:Q35"/>
-    <mergeCell ref="R34:R35"/>
-    <mergeCell ref="S34:S35"/>
-    <mergeCell ref="T34:T35"/>
-    <mergeCell ref="S27:S29"/>
-    <mergeCell ref="R27:R29"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="P32:P33"/>
-    <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="R32:R33"/>
-    <mergeCell ref="S32:S33"/>
-    <mergeCell ref="R25:R26"/>
-    <mergeCell ref="S25:S26"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="AF5:AF7"/>
-    <mergeCell ref="AG5:AG7"/>
-    <mergeCell ref="AH5:AH7"/>
-    <mergeCell ref="AI5:AI7"/>
-    <mergeCell ref="AJ5:AJ7"/>
-    <mergeCell ref="AK5:AK7"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="O30:O31"/>
-    <mergeCell ref="P30:P31"/>
-    <mergeCell ref="Q30:Q31"/>
+  <mergeCells count="193">
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="V3:AD3"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="AA5:AA6"/>
+    <mergeCell ref="AB5:AB6"/>
+    <mergeCell ref="AC5:AC6"/>
+    <mergeCell ref="AD5:AD6"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="AC7:AC8"/>
+    <mergeCell ref="AD7:AD8"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="O40:O41"/>
+    <mergeCell ref="P40:P41"/>
+    <mergeCell ref="Q40:Q41"/>
+    <mergeCell ref="R40:R41"/>
+    <mergeCell ref="S40:S41"/>
+    <mergeCell ref="T40:T41"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="O42:O43"/>
+    <mergeCell ref="P42:P43"/>
+    <mergeCell ref="Q42:Q43"/>
+    <mergeCell ref="R42:R43"/>
+    <mergeCell ref="S42:S43"/>
+    <mergeCell ref="T42:T43"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="O36:O37"/>
+    <mergeCell ref="P36:P37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="R36:R37"/>
+    <mergeCell ref="S36:S37"/>
+    <mergeCell ref="T36:T37"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="R23:R24"/>
+    <mergeCell ref="S23:S24"/>
+    <mergeCell ref="T23:T24"/>
+    <mergeCell ref="O38:O39"/>
+    <mergeCell ref="P38:P39"/>
+    <mergeCell ref="Q38:Q39"/>
+    <mergeCell ref="R38:R39"/>
+    <mergeCell ref="S38:S39"/>
+    <mergeCell ref="T38:T39"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="S21:S22"/>
+    <mergeCell ref="T21:T22"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="L3:T3"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="R11:R12"/>
     <mergeCell ref="L25:L26"/>
     <mergeCell ref="M25:M26"/>
     <mergeCell ref="N25:N26"/>
@@ -6808,139 +6803,49 @@
     <mergeCell ref="N27:N29"/>
     <mergeCell ref="M27:M29"/>
     <mergeCell ref="L27:L29"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="P30:P31"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="O34:O35"/>
+    <mergeCell ref="P34:P35"/>
+    <mergeCell ref="Q34:Q35"/>
+    <mergeCell ref="R34:R35"/>
+    <mergeCell ref="S34:S35"/>
+    <mergeCell ref="T34:T35"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="R32:R33"/>
+    <mergeCell ref="S32:S33"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="S27:S29"/>
+    <mergeCell ref="R27:R29"/>
+    <mergeCell ref="Q30:Q31"/>
     <mergeCell ref="R30:R31"/>
     <mergeCell ref="S30:S31"/>
     <mergeCell ref="T30:T31"/>
     <mergeCell ref="T27:T29"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="L3:T3"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="AF3:AN3"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="V3:AD3"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="S7:S8"/>
     <mergeCell ref="Q17:Q18"/>
     <mergeCell ref="R17:R18"/>
     <mergeCell ref="S17:S18"/>
     <mergeCell ref="T17:T18"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="P19:P20"/>
     <mergeCell ref="Q19:Q20"/>
     <mergeCell ref="R19:R20"/>
     <mergeCell ref="S19:S20"/>
     <mergeCell ref="T19:T20"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="R21:R22"/>
-    <mergeCell ref="S21:S22"/>
-    <mergeCell ref="T21:T22"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="R23:R24"/>
-    <mergeCell ref="S23:S24"/>
-    <mergeCell ref="T23:T24"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="O36:O37"/>
-    <mergeCell ref="P36:P37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="R36:R37"/>
-    <mergeCell ref="S36:S37"/>
-    <mergeCell ref="T36:T37"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="O38:O39"/>
-    <mergeCell ref="P38:P39"/>
-    <mergeCell ref="Q38:Q39"/>
-    <mergeCell ref="R38:R39"/>
-    <mergeCell ref="S38:S39"/>
-    <mergeCell ref="T38:T39"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="O40:O41"/>
-    <mergeCell ref="P40:P41"/>
-    <mergeCell ref="Q40:Q41"/>
-    <mergeCell ref="R40:R41"/>
-    <mergeCell ref="S40:S41"/>
-    <mergeCell ref="T40:T41"/>
-    <mergeCell ref="L42:L44"/>
-    <mergeCell ref="M42:M44"/>
-    <mergeCell ref="N42:N44"/>
-    <mergeCell ref="P42:P44"/>
-    <mergeCell ref="O42:O44"/>
-    <mergeCell ref="Q42:Q44"/>
-    <mergeCell ref="R42:R44"/>
-    <mergeCell ref="S42:S44"/>
-    <mergeCell ref="T42:T44"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
